--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2224997.768064179</v>
+        <v>2201290.841031115</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7468483.55953976</v>
+        <v>7468483.559539752</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4652905.835522319</v>
+        <v>4652905.835522322</v>
       </c>
     </row>
     <row r="9">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>222.9980771845658</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>187.131518636532</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>62.79501814358277</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>210.1807320553438</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>294.7313670648577</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I14" t="n">
-        <v>76.55610382424422</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>320.7531647571229</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I15" t="n">
-        <v>25.40560575917341</v>
+        <v>25.40560575917304</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I16" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>196.8617380866793</v>
+        <v>125.789143211822</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.1324075733218</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>129.9555122816361</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>303.8997808908692</v>
@@ -1897,16 +1897,16 @@
         <v>129.863150639597</v>
       </c>
       <c r="T17" t="n">
-        <v>119.4488854688914</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>137.160623366813</v>
       </c>
       <c r="T18" t="n">
-        <v>192.6732950772717</v>
+        <v>192.6732950772712</v>
       </c>
       <c r="U18" t="n">
         <v>225.8191062330279</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>10.45983792666365</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T19" t="n">
-        <v>221.2879033684809</v>
+        <v>199.2633256784364</v>
       </c>
       <c r="U19" t="n">
         <v>286.2340376195573</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>128.5430304893362</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.8290383841796</v>
       </c>
       <c r="H20" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.55610382424422</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>156.8428616151622</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>137.160623366813</v>
+        <v>137.1606233668129</v>
       </c>
       <c r="T21" t="n">
         <v>192.6732950772712</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>196.8617380866793</v>
       </c>
       <c r="T22" t="n">
-        <v>69.83461002789744</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>203.6850776989927</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>411.8290383841796</v>
       </c>
       <c r="H23" t="n">
-        <v>303.8997808908691</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I23" t="n">
         <v>76.55610382424422</v>
@@ -2371,10 +2371,10 @@
         <v>129.863150639597</v>
       </c>
       <c r="T23" t="n">
-        <v>207.8897316183737</v>
+        <v>207.8897316183739</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0677569773601</v>
+        <v>251.0677569773602</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>45.91376729445177</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T25" t="n">
         <v>221.2879033684809</v>
@@ -2535,16 +2535,16 @@
         <v>286.2340376195573</v>
       </c>
       <c r="V25" t="n">
-        <v>98.52735052031296</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>196.8617380866793</v>
       </c>
       <c r="T28" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>245.0961031859751</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>23.7826226712512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>54.12540154485847</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I31" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>149.7186157371235</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>207.8897316183737</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0677569773593</v>
+        <v>251.0677569773602</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>65.85694243117072</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I34" t="n">
         <v>108.5916972978535</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>128.5502297011778</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>257.4357816779456</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>92.19523992019649</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>100.2379734536574</v>
       </c>
       <c r="G37" t="n">
         <v>166.4327975146757</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.27619452184792</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>53.14435363425903</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>149.9407118044195</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3638,7 +3638,7 @@
         <v>192.6732950772712</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8191062330279</v>
+        <v>225.8191062330284</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>73.45469124586062</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H40" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>23.05453949792755</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>214.4779386394603</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>257.7055174989918</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S43" t="n">
         <v>196.8617380866793</v>
@@ -3954,19 +3954,19 @@
         <v>221.2879033684809</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>165.7150073993334</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>54.52875327054863</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.3402660888819</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.8290383841796</v>
       </c>
       <c r="H44" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>43.25337399468202</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U44" t="n">
         <v>251.0677569773601</v>
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646391</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>4.194913402908214</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U46" t="n">
         <v>286.2340376195573</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>271.6234226834889</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>354.0370246597199</v>
+        <v>1294.52311597327</v>
       </c>
       <c r="C11" t="n">
-        <v>354.0370246597199</v>
+        <v>925.5605990328588</v>
       </c>
       <c r="D11" t="n">
-        <v>354.0370246597199</v>
+        <v>925.5605990328588</v>
       </c>
       <c r="E11" t="n">
-        <v>128.7864416450069</v>
+        <v>539.7723464346145</v>
       </c>
       <c r="F11" t="n">
         <v>128.7864416450069</v>
@@ -5044,25 +5044,25 @@
         <v>164.0992112610951</v>
       </c>
       <c r="K11" t="n">
-        <v>383.6591389975515</v>
+        <v>454.8880554123277</v>
       </c>
       <c r="L11" t="n">
-        <v>1020.440056551459</v>
+        <v>764.1733224442169</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.248946459564</v>
+        <v>1139.982212352322</v>
       </c>
       <c r="N11" t="n">
-        <v>1782.752625481313</v>
+        <v>1526.485891374071</v>
       </c>
       <c r="O11" t="n">
-        <v>2134.381828380113</v>
+        <v>1878.11509427287</v>
       </c>
       <c r="P11" t="n">
-        <v>2418.972579286472</v>
+        <v>2143.721482858914</v>
       </c>
       <c r="Q11" t="n">
-        <v>2570.259169068458</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R11" t="n">
         <v>2572.852192137001</v>
@@ -5080,13 +5080,13 @@
         <v>1857.010610230847</v>
       </c>
       <c r="W11" t="n">
-        <v>1504.241954960733</v>
+        <v>1667.98887423435</v>
       </c>
       <c r="X11" t="n">
-        <v>1130.776196699653</v>
+        <v>1294.52311597327</v>
       </c>
       <c r="Y11" t="n">
-        <v>740.6368647238417</v>
+        <v>1294.52311597327</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>938.3699096944694</v>
+        <v>938.3699096944692</v>
       </c>
       <c r="C12" t="n">
-        <v>763.9168804133424</v>
+        <v>763.9168804133423</v>
       </c>
       <c r="D12" t="n">
-        <v>614.9824707520911</v>
+        <v>614.982470752091</v>
       </c>
       <c r="E12" t="n">
-        <v>455.7450157466357</v>
+        <v>455.7450157466355</v>
       </c>
       <c r="F12" t="n">
-        <v>309.2104577735206</v>
+        <v>309.2104577735205</v>
       </c>
       <c r="G12" t="n">
         <v>172.3569989104732</v>
@@ -5120,28 +5120,28 @@
         <v>51.45704384274002</v>
       </c>
       <c r="J12" t="n">
-        <v>99.72810012401973</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K12" t="n">
-        <v>260.3858485343756</v>
+        <v>385.2159735213803</v>
       </c>
       <c r="L12" t="n">
-        <v>522.7325588248386</v>
+        <v>647.5626838118435</v>
       </c>
       <c r="M12" t="n">
-        <v>848.2356638111658</v>
+        <v>973.0657887981706</v>
       </c>
       <c r="N12" t="n">
-        <v>1413.075477736792</v>
+        <v>1609.846706352078</v>
       </c>
       <c r="O12" t="n">
-        <v>2049.8563952907</v>
+        <v>1906.460887308273</v>
       </c>
       <c r="P12" t="n">
-        <v>2268.582359232884</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q12" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314666</v>
       </c>
       <c r="R12" t="n">
         <v>2572.852192137001</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>411.8929420091304</v>
+        <v>665.3129072632861</v>
       </c>
       <c r="C13" t="n">
-        <v>411.8929420091304</v>
+        <v>496.3767243353792</v>
       </c>
       <c r="D13" t="n">
-        <v>261.7763025967946</v>
+        <v>346.2600849230435</v>
       </c>
       <c r="E13" t="n">
         <v>198.3469913406504</v>
@@ -5223,28 +5223,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R13" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S13" t="n">
-        <v>1404.48485078137</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="T13" t="n">
-        <v>1404.48485078137</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="U13" t="n">
-        <v>1115.359560256565</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="V13" t="n">
-        <v>860.6750720506778</v>
+        <v>1059.265141846398</v>
       </c>
       <c r="W13" t="n">
-        <v>860.6750720506778</v>
+        <v>846.9613720935258</v>
       </c>
       <c r="X13" t="n">
-        <v>632.6855211526605</v>
+        <v>846.9613720935258</v>
       </c>
       <c r="Y13" t="n">
-        <v>411.8929420091304</v>
+        <v>846.9613720935258</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1211.44633782687</v>
+        <v>769.4124242796902</v>
       </c>
       <c r="C14" t="n">
-        <v>842.4838208864587</v>
+        <v>769.4124242796902</v>
       </c>
       <c r="D14" t="n">
-        <v>842.4838208864587</v>
+        <v>769.4124242796902</v>
       </c>
       <c r="E14" t="n">
-        <v>544.7753693057944</v>
+        <v>769.4124242796902</v>
       </c>
       <c r="F14" t="n">
-        <v>544.7753693057944</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="G14" t="n">
-        <v>128.7864416450069</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="H14" t="n">
-        <v>128.7864416450069</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I14" t="n">
         <v>51.45704384274002</v>
       </c>
       <c r="J14" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K14" t="n">
-        <v>383.6591389975515</v>
+        <v>551.0647880179044</v>
       </c>
       <c r="L14" t="n">
-        <v>829.2325781184695</v>
+        <v>860.3500550497936</v>
       </c>
       <c r="M14" t="n">
-        <v>1205.041468026574</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N14" t="n">
-        <v>1591.545147048323</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O14" t="n">
-        <v>1943.174349947123</v>
+        <v>1974.291826878447</v>
       </c>
       <c r="P14" t="n">
-        <v>2208.780738533167</v>
+        <v>2353.91332361222</v>
       </c>
       <c r="Q14" t="n">
-        <v>2570.259169068458</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R14" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S14" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501045</v>
       </c>
       <c r="T14" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501045</v>
       </c>
       <c r="U14" t="n">
-        <v>2319.248397210375</v>
+        <v>2188.073497574418</v>
       </c>
       <c r="V14" t="n">
-        <v>1988.185509866804</v>
+        <v>1857.010610230847</v>
       </c>
       <c r="W14" t="n">
-        <v>1988.185509866804</v>
+        <v>1533.017514516582</v>
       </c>
       <c r="X14" t="n">
-        <v>1988.185509866804</v>
+        <v>1159.551756255502</v>
       </c>
       <c r="Y14" t="n">
-        <v>1598.046177890992</v>
+        <v>769.4124242796902</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>938.3699096944697</v>
+        <v>938.3699096944692</v>
       </c>
       <c r="C15" t="n">
-        <v>763.9168804133427</v>
+        <v>763.9168804133423</v>
       </c>
       <c r="D15" t="n">
-        <v>614.9824707520914</v>
+        <v>614.9824707520911</v>
       </c>
       <c r="E15" t="n">
-        <v>455.7450157466359</v>
+        <v>455.7450157466355</v>
       </c>
       <c r="F15" t="n">
-        <v>309.2104577735209</v>
+        <v>309.2104577735206</v>
       </c>
       <c r="G15" t="n">
-        <v>172.3569989104736</v>
+        <v>172.3569989104732</v>
       </c>
       <c r="H15" t="n">
-        <v>77.11927188230912</v>
+        <v>77.11927188230874</v>
       </c>
       <c r="I15" t="n">
         <v>51.45704384274002</v>
@@ -5363,19 +5363,19 @@
         <v>647.0365581638331</v>
       </c>
       <c r="L15" t="n">
-        <v>909.3832684542963</v>
+        <v>1064.126680999498</v>
       </c>
       <c r="M15" t="n">
-        <v>1234.886373440623</v>
+        <v>1389.629785985825</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.413221966968</v>
+        <v>1738.15663451217</v>
       </c>
       <c r="O15" t="n">
-        <v>1880.027402923163</v>
+        <v>2034.770815468364</v>
       </c>
       <c r="P15" t="n">
-        <v>2414.031507818884</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q15" t="n">
         <v>2557.766612314666</v>
@@ -5387,10 +5387,10 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T15" t="n">
-        <v>2239.686617951058</v>
+        <v>2239.686617951057</v>
       </c>
       <c r="U15" t="n">
-        <v>2011.586510644969</v>
+        <v>2011.586510644968</v>
       </c>
       <c r="V15" t="n">
         <v>1776.434402413226</v>
@@ -5399,10 +5399,10 @@
         <v>1522.197045685024</v>
       </c>
       <c r="X15" t="n">
-        <v>1314.345545479492</v>
+        <v>1314.345545479491</v>
       </c>
       <c r="Y15" t="n">
-        <v>1106.585246714538</v>
+        <v>1106.585246714537</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>628.1115428945207</v>
+        <v>983.2990859521088</v>
       </c>
       <c r="C16" t="n">
-        <v>459.1753599666138</v>
+        <v>814.362903024202</v>
       </c>
       <c r="D16" t="n">
-        <v>309.0587205542781</v>
+        <v>664.2462636118662</v>
       </c>
       <c r="E16" t="n">
-        <v>161.145626971885</v>
+        <v>516.3331700294731</v>
       </c>
       <c r="F16" t="n">
-        <v>161.145626971885</v>
+        <v>369.4432225315627</v>
       </c>
       <c r="G16" t="n">
-        <v>161.145626971885</v>
+        <v>201.329285648052</v>
       </c>
       <c r="H16" t="n">
-        <v>161.145626971885</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I16" t="n">
         <v>51.45704384274002</v>
@@ -5463,25 +5463,25 @@
         <v>1512.799870543881</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.949630052285</v>
+        <v>1385.740129925879</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.949630052285</v>
+        <v>1385.740129925879</v>
       </c>
       <c r="U16" t="n">
-        <v>1313.949630052285</v>
+        <v>1385.740129925879</v>
       </c>
       <c r="V16" t="n">
-        <v>1059.265141846398</v>
+        <v>1385.740129925879</v>
       </c>
       <c r="W16" t="n">
-        <v>1059.265141846398</v>
+        <v>1385.740129925879</v>
       </c>
       <c r="X16" t="n">
-        <v>831.275590948381</v>
+        <v>1385.740129925879</v>
       </c>
       <c r="Y16" t="n">
-        <v>628.1115428945207</v>
+        <v>1164.947550782349</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1989.958965289907</v>
+        <v>1162.984132839512</v>
       </c>
       <c r="C17" t="n">
-        <v>1620.996448349495</v>
+        <v>794.0216158991001</v>
       </c>
       <c r="D17" t="n">
-        <v>1262.730749742745</v>
+        <v>435.7559172923496</v>
       </c>
       <c r="E17" t="n">
-        <v>1262.730749742745</v>
+        <v>435.7559172923496</v>
       </c>
       <c r="F17" t="n">
-        <v>851.7448449531371</v>
+        <v>435.7559172923496</v>
       </c>
       <c r="G17" t="n">
         <v>435.7559172923496</v>
@@ -5515,25 +5515,25 @@
         <v>51.45704384274002</v>
       </c>
       <c r="J17" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K17" t="n">
-        <v>383.6591389975515</v>
+        <v>551.0647880179044</v>
       </c>
       <c r="L17" t="n">
-        <v>692.9444060294406</v>
+        <v>860.3500550497936</v>
       </c>
       <c r="M17" t="n">
-        <v>1068.753295937546</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N17" t="n">
-        <v>1705.534213491453</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O17" t="n">
-        <v>2057.163416390253</v>
+        <v>1974.291826878447</v>
       </c>
       <c r="P17" t="n">
-        <v>2322.769804976297</v>
+        <v>2239.898215464491</v>
       </c>
       <c r="Q17" t="n">
         <v>2570.259169068458</v>
@@ -5545,22 +5545,22 @@
         <v>2441.677292501045</v>
       </c>
       <c r="T17" t="n">
-        <v>2321.021852633477</v>
+        <v>2231.687664603698</v>
       </c>
       <c r="U17" t="n">
-        <v>2321.021852633477</v>
+        <v>1978.083869677071</v>
       </c>
       <c r="V17" t="n">
-        <v>1989.958965289907</v>
+        <v>1647.020982333501</v>
       </c>
       <c r="W17" t="n">
-        <v>1989.958965289907</v>
+        <v>1294.252327063387</v>
       </c>
       <c r="X17" t="n">
-        <v>1989.958965289907</v>
+        <v>1294.252327063387</v>
       </c>
       <c r="Y17" t="n">
-        <v>1989.958965289907</v>
+        <v>1294.252327063387</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>938.3699096944694</v>
+        <v>938.3699096944692</v>
       </c>
       <c r="C18" t="n">
-        <v>763.9168804133424</v>
+        <v>763.9168804133423</v>
       </c>
       <c r="D18" t="n">
-        <v>614.9824707520911</v>
+        <v>614.9824707520909</v>
       </c>
       <c r="E18" t="n">
-        <v>455.7450157466357</v>
+        <v>455.7450157466353</v>
       </c>
       <c r="F18" t="n">
-        <v>309.2104577735206</v>
+        <v>309.2104577735204</v>
       </c>
       <c r="G18" t="n">
         <v>172.3569989104732</v>
       </c>
       <c r="H18" t="n">
-        <v>77.11927188230874</v>
+        <v>77.11927188230875</v>
       </c>
       <c r="I18" t="n">
         <v>51.45704384274002</v>
       </c>
       <c r="J18" t="n">
-        <v>99.72810012401973</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K18" t="n">
-        <v>260.3858485343756</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L18" t="n">
-        <v>522.7325588248386</v>
+        <v>1064.126680999498</v>
       </c>
       <c r="M18" t="n">
-        <v>848.2356638111658</v>
+        <v>1389.629785985825</v>
       </c>
       <c r="N18" t="n">
-        <v>1196.762512337511</v>
+        <v>1738.15663451217</v>
       </c>
       <c r="O18" t="n">
-        <v>1734.578254337162</v>
+        <v>2034.770815468364</v>
       </c>
       <c r="P18" t="n">
-        <v>2268.582359232884</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q18" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314666</v>
       </c>
       <c r="R18" t="n">
         <v>2572.852192137001</v>
@@ -5624,7 +5624,7 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T18" t="n">
-        <v>2239.686617951057</v>
+        <v>2239.686617951058</v>
       </c>
       <c r="U18" t="n">
         <v>2011.586510644968</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>489.9416961229473</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="C19" t="n">
-        <v>489.9416961229473</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="D19" t="n">
-        <v>339.8250567106115</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="E19" t="n">
-        <v>339.8250567106115</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="F19" t="n">
-        <v>339.8250567106115</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="G19" t="n">
-        <v>171.7111198271008</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H19" t="n">
-        <v>161.145626971885</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I19" t="n">
         <v>51.45704384274002</v>
@@ -5700,25 +5700,25 @@
         <v>1512.799870543881</v>
       </c>
       <c r="S19" t="n">
-        <v>1512.799870543881</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="T19" t="n">
-        <v>1289.276735828243</v>
+        <v>1112.67354350841</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.151445303438</v>
+        <v>823.5482529836048</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.151445303438</v>
+        <v>568.863764777718</v>
       </c>
       <c r="W19" t="n">
-        <v>710.7342752664774</v>
+        <v>279.4465947407573</v>
       </c>
       <c r="X19" t="n">
-        <v>710.7342752664774</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="Y19" t="n">
-        <v>489.9416961229473</v>
+        <v>51.45704384274002</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1350.548806832272</v>
+        <v>1264.220128891379</v>
       </c>
       <c r="C20" t="n">
-        <v>981.5862898918606</v>
+        <v>1264.220128891379</v>
       </c>
       <c r="D20" t="n">
-        <v>981.5862898918606</v>
+        <v>1264.220128891379</v>
       </c>
       <c r="E20" t="n">
-        <v>851.7448449531371</v>
+        <v>878.431876293135</v>
       </c>
       <c r="F20" t="n">
-        <v>851.7448449531371</v>
+        <v>467.4459715035275</v>
       </c>
       <c r="G20" t="n">
-        <v>435.7559172923496</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H20" t="n">
-        <v>128.7864416450069</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I20" t="n">
         <v>51.45704384274002</v>
       </c>
       <c r="J20" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K20" t="n">
-        <v>383.6591389975515</v>
+        <v>551.0647880179044</v>
       </c>
       <c r="L20" t="n">
-        <v>1020.440056551459</v>
+        <v>860.3500550497936</v>
       </c>
       <c r="M20" t="n">
-        <v>1415.23330877988</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N20" t="n">
-        <v>1801.736987801629</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O20" t="n">
-        <v>2153.366190700429</v>
+        <v>1974.291826878447</v>
       </c>
       <c r="P20" t="n">
-        <v>2418.972579286472</v>
+        <v>2239.898215464491</v>
       </c>
       <c r="Q20" t="n">
-        <v>2570.259169068458</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R20" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S20" t="n">
-        <v>2441.677292501045</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="T20" t="n">
-        <v>2441.677292501045</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U20" t="n">
-        <v>2441.677292501045</v>
+        <v>2414.425059192393</v>
       </c>
       <c r="V20" t="n">
-        <v>2110.614405157474</v>
+        <v>2414.425059192393</v>
       </c>
       <c r="W20" t="n">
-        <v>2110.614405157474</v>
+        <v>2414.425059192393</v>
       </c>
       <c r="X20" t="n">
-        <v>1737.148646896394</v>
+        <v>2040.959300931313</v>
       </c>
       <c r="Y20" t="n">
-        <v>1737.148646896394</v>
+        <v>1650.819968955501</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>938.3699096944692</v>
+        <v>938.3699096944694</v>
       </c>
       <c r="C21" t="n">
-        <v>763.9168804133423</v>
+        <v>763.9168804133424</v>
       </c>
       <c r="D21" t="n">
-        <v>614.9824707520909</v>
+        <v>614.9824707520911</v>
       </c>
       <c r="E21" t="n">
-        <v>455.7450157466353</v>
+        <v>455.7450157466357</v>
       </c>
       <c r="F21" t="n">
-        <v>309.2104577735204</v>
+        <v>309.2104577735206</v>
       </c>
       <c r="G21" t="n">
         <v>172.3569989104732</v>
       </c>
       <c r="H21" t="n">
-        <v>77.11927188230875</v>
+        <v>77.11927188230874</v>
       </c>
       <c r="I21" t="n">
         <v>51.45704384274002</v>
       </c>
       <c r="J21" t="n">
-        <v>99.72810012401973</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K21" t="n">
-        <v>260.3858485343756</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L21" t="n">
-        <v>643.6823902327121</v>
+        <v>1064.126680999498</v>
       </c>
       <c r="M21" t="n">
-        <v>969.1854952190392</v>
+        <v>1389.629785985825</v>
       </c>
       <c r="N21" t="n">
-        <v>1605.966412772947</v>
+        <v>1738.15663451217</v>
       </c>
       <c r="O21" t="n">
-        <v>2242.747330326855</v>
+        <v>2034.770815468364</v>
       </c>
       <c r="P21" t="n">
-        <v>2461.473294269039</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q21" t="n">
         <v>2557.766612314666</v>
@@ -5864,7 +5864,7 @@
         <v>2239.686617951058</v>
       </c>
       <c r="U21" t="n">
-        <v>2011.586510644968</v>
+        <v>2011.586510644969</v>
       </c>
       <c r="V21" t="n">
         <v>1776.434402413226</v>
@@ -5873,10 +5873,10 @@
         <v>1522.197045685024</v>
       </c>
       <c r="X21" t="n">
-        <v>1314.345545479491</v>
+        <v>1314.345545479492</v>
       </c>
       <c r="Y21" t="n">
-        <v>1106.585246714537</v>
+        <v>1106.585246714538</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1684.937172573215</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="C22" t="n">
-        <v>1516.000989645308</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="D22" t="n">
-        <v>1516.000989645308</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="E22" t="n">
-        <v>1368.087896062915</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="F22" t="n">
-        <v>1221.197948565005</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="G22" t="n">
-        <v>1221.197948565005</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H22" t="n">
-        <v>1221.197948565005</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I22" t="n">
-        <v>1111.50936543586</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J22" t="n">
-        <v>1128.145598912265</v>
+        <v>68.09327731914516</v>
       </c>
       <c r="K22" t="n">
-        <v>1285.320877676575</v>
+        <v>225.2685560834543</v>
       </c>
       <c r="L22" t="n">
-        <v>1541.977555543348</v>
+        <v>481.9252339502281</v>
       </c>
       <c r="M22" t="n">
-        <v>1822.97515952674</v>
+        <v>762.9228379336196</v>
       </c>
       <c r="N22" t="n">
-        <v>2102.725884969786</v>
+        <v>1042.673563376666</v>
       </c>
       <c r="O22" t="n">
-        <v>2345.104663368943</v>
+        <v>1285.052341775823</v>
       </c>
       <c r="P22" t="n">
-        <v>2528.980898288402</v>
+        <v>1468.928576695282</v>
       </c>
       <c r="Q22" t="n">
-        <v>2572.852192137001</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="R22" t="n">
-        <v>2464.537172374491</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S22" t="n">
-        <v>2265.686931882895</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="T22" t="n">
-        <v>2195.146921753706</v>
+        <v>1090.426495336648</v>
       </c>
       <c r="U22" t="n">
-        <v>2195.146921753706</v>
+        <v>801.3012048118427</v>
       </c>
       <c r="V22" t="n">
-        <v>2195.146921753706</v>
+        <v>546.6167166059558</v>
       </c>
       <c r="W22" t="n">
-        <v>1905.729751716745</v>
+        <v>257.1995465689952</v>
       </c>
       <c r="X22" t="n">
-        <v>1905.729751716745</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="Y22" t="n">
-        <v>1684.937172573215</v>
+        <v>51.45704384274002</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2421.29211219684</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.329595256429</v>
+        <v>2052.329595256428</v>
       </c>
       <c r="D23" t="n">
         <v>1694.063896649678</v>
@@ -5980,13 +5980,13 @@
         <v>897.2897392618263</v>
       </c>
       <c r="G23" t="n">
-        <v>481.3008116010388</v>
+        <v>481.3008116010389</v>
       </c>
       <c r="H23" t="n">
         <v>174.3313359536963</v>
       </c>
       <c r="I23" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J23" t="n">
         <v>377.0497545901375</v>
@@ -6001,37 +6001,37 @@
         <v>2461.110798274891</v>
       </c>
       <c r="N23" t="n">
-        <v>3108.157706268654</v>
+        <v>3280.587932464504</v>
       </c>
       <c r="O23" t="n">
-        <v>3836.779088617572</v>
+        <v>3836.77908861757</v>
       </c>
       <c r="P23" t="n">
-        <v>4420.966198293383</v>
+        <v>4420.966198293381</v>
       </c>
       <c r="Q23" t="n">
-        <v>4782.444628828674</v>
+        <v>4782.444628828673</v>
       </c>
       <c r="R23" t="n">
-        <v>4850.096907571469</v>
+        <v>4850.096907571468</v>
       </c>
       <c r="S23" t="n">
-        <v>4718.922007935513</v>
+        <v>4718.922007935512</v>
       </c>
       <c r="T23" t="n">
-        <v>4508.932380038165</v>
+        <v>4508.932380038164</v>
       </c>
       <c r="U23" t="n">
-        <v>4255.328585111539</v>
+        <v>4255.328585111538</v>
       </c>
       <c r="V23" t="n">
         <v>3924.265697767968</v>
       </c>
       <c r="W23" t="n">
-        <v>3571.497042497854</v>
+        <v>3571.497042497853</v>
       </c>
       <c r="X23" t="n">
-        <v>3198.031284236774</v>
+        <v>3198.031284236773</v>
       </c>
       <c r="Y23" t="n">
         <v>2807.891952260962</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3215.614625128937</v>
+        <v>983.9148040031588</v>
       </c>
       <c r="C24" t="n">
-        <v>3041.161595847811</v>
+        <v>809.4617747220318</v>
       </c>
       <c r="D24" t="n">
-        <v>2892.227186186559</v>
+        <v>660.5273650607805</v>
       </c>
       <c r="E24" t="n">
-        <v>2732.989731181104</v>
+        <v>501.289910055325</v>
       </c>
       <c r="F24" t="n">
-        <v>2586.455173207989</v>
+        <v>354.7553520822099</v>
       </c>
       <c r="G24" t="n">
-        <v>2449.601714344941</v>
+        <v>217.9018932191626</v>
       </c>
       <c r="H24" t="n">
-        <v>2354.363987316777</v>
+        <v>122.6641661909981</v>
       </c>
       <c r="I24" t="n">
-        <v>2328.701759277208</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J24" t="n">
-        <v>2376.972815558488</v>
+        <v>270.1031194197138</v>
       </c>
       <c r="K24" t="n">
-        <v>2799.451148611297</v>
+        <v>692.5814524725224</v>
       </c>
       <c r="L24" t="n">
-        <v>3428.929800752184</v>
+        <v>1109.671575308187</v>
       </c>
       <c r="M24" t="n">
-        <v>3754.432905738511</v>
+        <v>1435.174680294514</v>
       </c>
       <c r="N24" t="n">
-        <v>4102.959754264856</v>
+        <v>1783.701528820859</v>
       </c>
       <c r="O24" t="n">
-        <v>4535.077625583658</v>
+        <v>2080.315709777053</v>
       </c>
       <c r="P24" t="n">
-        <v>4753.803589525843</v>
+        <v>2299.041673719237</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.096907571469</v>
+        <v>2603.311506623354</v>
       </c>
       <c r="R24" t="n">
-        <v>4850.096907571469</v>
+        <v>2618.39708644569</v>
       </c>
       <c r="S24" t="n">
-        <v>4711.550823362567</v>
+        <v>2479.851002236788</v>
       </c>
       <c r="T24" t="n">
-        <v>4516.931333385525</v>
+        <v>2285.231512259747</v>
       </c>
       <c r="U24" t="n">
-        <v>4288.831226079436</v>
+        <v>2057.131404953658</v>
       </c>
       <c r="V24" t="n">
-        <v>4053.679117847694</v>
+        <v>1821.979296721915</v>
       </c>
       <c r="W24" t="n">
-        <v>3799.441761119492</v>
+        <v>1567.741939993713</v>
       </c>
       <c r="X24" t="n">
-        <v>3591.590260913959</v>
+        <v>1359.890439788181</v>
       </c>
       <c r="Y24" t="n">
-        <v>3383.829962149005</v>
+        <v>1152.130141023227</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.1185775637651</v>
+        <v>143.3794808730978</v>
       </c>
       <c r="C25" t="n">
-        <v>247.1185775637651</v>
+        <v>143.3794808730978</v>
       </c>
       <c r="D25" t="n">
-        <v>97.00193815142939</v>
+        <v>143.3794808730978</v>
       </c>
       <c r="E25" t="n">
-        <v>97.00193815142939</v>
+        <v>143.3794808730978</v>
       </c>
       <c r="F25" t="n">
-        <v>97.00193815142939</v>
+        <v>143.3794808730978</v>
       </c>
       <c r="G25" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="H25" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="I25" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J25" t="n">
         <v>113.6381716278345</v>
@@ -6174,25 +6174,25 @@
         <v>1558.34476485257</v>
       </c>
       <c r="S25" t="n">
-        <v>1558.34476485257</v>
+        <v>1359.494524360975</v>
       </c>
       <c r="T25" t="n">
-        <v>1334.821630136933</v>
+        <v>1135.971389645337</v>
       </c>
       <c r="U25" t="n">
-        <v>1045.696339612127</v>
+        <v>846.8460991205321</v>
       </c>
       <c r="V25" t="n">
-        <v>946.1737633289829</v>
+        <v>592.1616109146453</v>
       </c>
       <c r="W25" t="n">
-        <v>656.7565932920222</v>
+        <v>592.1616109146453</v>
       </c>
       <c r="X25" t="n">
-        <v>428.7670423940048</v>
+        <v>364.1720600166279</v>
       </c>
       <c r="Y25" t="n">
-        <v>428.7670423940048</v>
+        <v>143.3794808730978</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2421.29211219684</v>
+        <v>2421.292112196839</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.329595256429</v>
+        <v>2052.329595256428</v>
       </c>
       <c r="D26" t="n">
-        <v>1694.063896649679</v>
+        <v>1694.063896649678</v>
       </c>
       <c r="E26" t="n">
         <v>1308.275644051434</v>
       </c>
       <c r="F26" t="n">
-        <v>897.289739261827</v>
+        <v>897.2897392618261</v>
       </c>
       <c r="G26" t="n">
-        <v>481.3008116010396</v>
+        <v>481.3008116010387</v>
       </c>
       <c r="H26" t="n">
         <v>174.3313359536963</v>
@@ -6232,46 +6232,46 @@
         <v>917.513640772047</v>
       </c>
       <c r="L26" t="n">
-        <v>1532.912539687284</v>
+        <v>1640.283510208882</v>
       </c>
       <c r="M26" t="n">
-        <v>2353.739827753293</v>
+        <v>2461.110798274891</v>
       </c>
       <c r="N26" t="n">
-        <v>3173.216961942906</v>
+        <v>3280.587932464504</v>
       </c>
       <c r="O26" t="n">
-        <v>3901.838344291824</v>
+        <v>3836.779088617572</v>
       </c>
       <c r="P26" t="n">
-        <v>4486.025453967635</v>
+        <v>4420.966198293383</v>
       </c>
       <c r="Q26" t="n">
-        <v>4847.503884502926</v>
+        <v>4782.444628828674</v>
       </c>
       <c r="R26" t="n">
         <v>4850.096907571469</v>
       </c>
       <c r="S26" t="n">
-        <v>4718.922007935513</v>
+        <v>4718.922007935512</v>
       </c>
       <c r="T26" t="n">
-        <v>4508.932380038165</v>
+        <v>4508.932380038164</v>
       </c>
       <c r="U26" t="n">
-        <v>4255.328585111539</v>
+        <v>4255.328585111538</v>
       </c>
       <c r="V26" t="n">
-        <v>3924.265697767968</v>
+        <v>3924.265697767967</v>
       </c>
       <c r="W26" t="n">
-        <v>3571.497042497854</v>
+        <v>3571.497042497853</v>
       </c>
       <c r="X26" t="n">
-        <v>3198.031284236774</v>
+        <v>3198.031284236773</v>
       </c>
       <c r="Y26" t="n">
-        <v>2807.891952260962</v>
+        <v>2807.891952260961</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>270.1031194197138</v>
       </c>
       <c r="K27" t="n">
-        <v>472.4867487560973</v>
+        <v>692.5814524725224</v>
       </c>
       <c r="L27" t="n">
-        <v>734.8334590465604</v>
+        <v>1109.671575308187</v>
       </c>
       <c r="M27" t="n">
-        <v>1060.336564032888</v>
+        <v>1435.174680294514</v>
       </c>
       <c r="N27" t="n">
-        <v>1408.863412559232</v>
+        <v>1783.701528820859</v>
       </c>
       <c r="O27" t="n">
-        <v>2095.401289599389</v>
+        <v>2080.315709777053</v>
       </c>
       <c r="P27" t="n">
-        <v>2314.127253541573</v>
+        <v>2299.041673719237</v>
       </c>
       <c r="Q27" t="n">
-        <v>2618.39708644569</v>
+        <v>2603.311506623354</v>
       </c>
       <c r="R27" t="n">
         <v>2618.39708644569</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.6155854261289</v>
+        <v>822.5055329240392</v>
       </c>
       <c r="C28" t="n">
-        <v>506.679402498222</v>
+        <v>653.5693499961324</v>
       </c>
       <c r="D28" t="n">
-        <v>356.5627630858863</v>
+        <v>503.4527105837966</v>
       </c>
       <c r="E28" t="n">
-        <v>356.5627630858863</v>
+        <v>503.4527105837966</v>
       </c>
       <c r="F28" t="n">
         <v>356.5627630858863</v>
@@ -6414,22 +6414,22 @@
         <v>1359.494524360975</v>
       </c>
       <c r="T28" t="n">
-        <v>1135.971389645337</v>
+        <v>1359.494524360975</v>
       </c>
       <c r="U28" t="n">
-        <v>1135.971389645337</v>
+        <v>1111.922702961</v>
       </c>
       <c r="V28" t="n">
-        <v>881.2869014394506</v>
+        <v>1111.922702961</v>
       </c>
       <c r="W28" t="n">
-        <v>857.2640502563686</v>
+        <v>822.5055329240392</v>
       </c>
       <c r="X28" t="n">
-        <v>857.2640502563686</v>
+        <v>822.5055329240392</v>
       </c>
       <c r="Y28" t="n">
-        <v>857.2640502563686</v>
+        <v>822.5055329240392</v>
       </c>
     </row>
     <row r="29">
@@ -6457,13 +6457,13 @@
         <v>481.3008116010396</v>
       </c>
       <c r="H29" t="n">
-        <v>174.3313359536963</v>
+        <v>174.3313359536969</v>
       </c>
       <c r="I29" t="n">
         <v>97.00193815142939</v>
       </c>
       <c r="J29" t="n">
-        <v>377.0497545901375</v>
+        <v>269.6787840685395</v>
       </c>
       <c r="K29" t="n">
         <v>810.1426702504489</v>
@@ -6542,28 +6542,28 @@
         <v>97.00193815142939</v>
       </c>
       <c r="J30" t="n">
-        <v>204.5273742506943</v>
+        <v>270.1031194197138</v>
       </c>
       <c r="K30" t="n">
-        <v>365.1851226610501</v>
+        <v>692.5814524725224</v>
       </c>
       <c r="L30" t="n">
-        <v>627.5318329515133</v>
+        <v>954.9281627629855</v>
       </c>
       <c r="M30" t="n">
-        <v>953.0349379378404</v>
+        <v>1280.431267749313</v>
       </c>
       <c r="N30" t="n">
-        <v>1301.561786464185</v>
+        <v>1628.958116275657</v>
       </c>
       <c r="O30" t="n">
-        <v>1988.099663504342</v>
+        <v>1925.572297231852</v>
       </c>
       <c r="P30" t="n">
-        <v>2522.103768400063</v>
+        <v>2299.041673719237</v>
       </c>
       <c r="Q30" t="n">
-        <v>2618.39708644569</v>
+        <v>2603.311506623354</v>
       </c>
       <c r="R30" t="n">
         <v>2618.39708644569</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4016.031764735872</v>
+        <v>712.8169497948943</v>
       </c>
       <c r="C31" t="n">
-        <v>4016.031764735872</v>
+        <v>543.8807668669874</v>
       </c>
       <c r="D31" t="n">
-        <v>3961.359641963288</v>
+        <v>393.7641274546517</v>
       </c>
       <c r="E31" t="n">
-        <v>3813.446548380894</v>
+        <v>393.7641274546517</v>
       </c>
       <c r="F31" t="n">
-        <v>3666.556600882984</v>
+        <v>246.8741799567413</v>
       </c>
       <c r="G31" t="n">
-        <v>3498.442663999474</v>
+        <v>246.8741799567413</v>
       </c>
       <c r="H31" t="n">
-        <v>3498.442663999474</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="I31" t="n">
-        <v>3388.754080870328</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J31" t="n">
-        <v>3405.390314346734</v>
+        <v>113.6381716278345</v>
       </c>
       <c r="K31" t="n">
-        <v>3562.565593111043</v>
+        <v>270.8134503921437</v>
       </c>
       <c r="L31" t="n">
-        <v>3819.222270977817</v>
+        <v>527.4701282589174</v>
       </c>
       <c r="M31" t="n">
-        <v>4100.219874961208</v>
+        <v>808.467732242309</v>
       </c>
       <c r="N31" t="n">
-        <v>4379.970600404255</v>
+        <v>1088.218457685355</v>
       </c>
       <c r="O31" t="n">
-        <v>4622.349378803412</v>
+        <v>1330.597236084513</v>
       </c>
       <c r="P31" t="n">
-        <v>4806.225613722871</v>
+        <v>1514.473471003972</v>
       </c>
       <c r="Q31" t="n">
-        <v>4850.096907571469</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="R31" t="n">
-        <v>4741.781887808959</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="S31" t="n">
-        <v>4741.781887808959</v>
+        <v>1407.113839865577</v>
       </c>
       <c r="T31" t="n">
-        <v>4741.781887808959</v>
+        <v>1183.590705149939</v>
       </c>
       <c r="U31" t="n">
-        <v>4741.781887808959</v>
+        <v>894.465414625134</v>
       </c>
       <c r="V31" t="n">
-        <v>4487.097399603073</v>
+        <v>894.465414625134</v>
       </c>
       <c r="W31" t="n">
-        <v>4197.680229566112</v>
+        <v>894.465414625134</v>
       </c>
       <c r="X31" t="n">
-        <v>4197.680229566112</v>
+        <v>894.465414625134</v>
       </c>
       <c r="Y31" t="n">
-        <v>4197.680229566112</v>
+        <v>894.465414625134</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1308.275644051434</v>
       </c>
       <c r="F32" t="n">
-        <v>897.2897392618263</v>
+        <v>897.2897392618265</v>
       </c>
       <c r="G32" t="n">
         <v>481.3008116010389</v>
@@ -6697,40 +6697,40 @@
         <v>174.3313359536963</v>
       </c>
       <c r="I32" t="n">
-        <v>97.00193815142937</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J32" t="n">
-        <v>209.6441055697845</v>
+        <v>377.0497545901375</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1079917516938</v>
+        <v>917.513640772047</v>
       </c>
       <c r="L32" t="n">
-        <v>1472.877861188529</v>
+        <v>1640.283510208882</v>
       </c>
       <c r="M32" t="n">
-        <v>2293.705149254538</v>
+        <v>2288.680572079041</v>
       </c>
       <c r="N32" t="n">
-        <v>3113.182283444151</v>
+        <v>3108.157706268654</v>
       </c>
       <c r="O32" t="n">
-        <v>3841.803665793069</v>
+        <v>3836.779088617572</v>
       </c>
       <c r="P32" t="n">
-        <v>4425.99077546888</v>
+        <v>4420.966198293383</v>
       </c>
       <c r="Q32" t="n">
-        <v>4787.469206004171</v>
+        <v>4782.444628828674</v>
       </c>
       <c r="R32" t="n">
-        <v>4850.096907571468</v>
+        <v>4850.096907571469</v>
       </c>
       <c r="S32" t="n">
-        <v>4718.922007935512</v>
+        <v>4718.922007935513</v>
       </c>
       <c r="T32" t="n">
-        <v>4508.932380038164</v>
+        <v>4508.932380038165</v>
       </c>
       <c r="U32" t="n">
         <v>4255.328585111539</v>
@@ -6776,31 +6776,31 @@
         <v>122.6641661909981</v>
       </c>
       <c r="I33" t="n">
-        <v>97.00193815142937</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J33" t="n">
-        <v>145.2729944327091</v>
+        <v>270.1031194197138</v>
       </c>
       <c r="K33" t="n">
-        <v>305.9307428430649</v>
+        <v>692.5814524725224</v>
       </c>
       <c r="L33" t="n">
-        <v>568.2774531335281</v>
+        <v>954.9281627629855</v>
       </c>
       <c r="M33" t="n">
-        <v>1183.687824375222</v>
+        <v>1280.431267749313</v>
       </c>
       <c r="N33" t="n">
-        <v>2006.763623501685</v>
+        <v>1628.958116275657</v>
       </c>
       <c r="O33" t="n">
-        <v>2303.377804457879</v>
+        <v>1925.572297231852</v>
       </c>
       <c r="P33" t="n">
-        <v>2522.103768400063</v>
+        <v>2299.041673719237</v>
       </c>
       <c r="Q33" t="n">
-        <v>2618.39708644569</v>
+        <v>2603.311506623354</v>
       </c>
       <c r="R33" t="n">
         <v>2618.39708644569</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3861.971414981608</v>
+        <v>1138.532563389943</v>
       </c>
       <c r="C34" t="n">
-        <v>3861.971414981608</v>
+        <v>969.5963804620363</v>
       </c>
       <c r="D34" t="n">
-        <v>3711.854775569273</v>
+        <v>819.4797410497006</v>
       </c>
       <c r="E34" t="n">
-        <v>3645.332611497383</v>
+        <v>671.5666474673075</v>
       </c>
       <c r="F34" t="n">
-        <v>3498.442663999473</v>
+        <v>524.6766999693971</v>
       </c>
       <c r="G34" t="n">
-        <v>3498.442663999473</v>
+        <v>356.5627630858863</v>
       </c>
       <c r="H34" t="n">
-        <v>3498.442663999473</v>
+        <v>206.6905212805743</v>
       </c>
       <c r="I34" t="n">
-        <v>3388.754080870327</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J34" t="n">
-        <v>3405.390314346733</v>
+        <v>113.6381716278345</v>
       </c>
       <c r="K34" t="n">
-        <v>3562.565593111042</v>
+        <v>270.8134503921437</v>
       </c>
       <c r="L34" t="n">
-        <v>3819.222270977816</v>
+        <v>527.4701282589174</v>
       </c>
       <c r="M34" t="n">
-        <v>4100.219874961207</v>
+        <v>808.467732242309</v>
       </c>
       <c r="N34" t="n">
-        <v>4379.970600404254</v>
+        <v>1088.218457685355</v>
       </c>
       <c r="O34" t="n">
-        <v>4622.349378803411</v>
+        <v>1330.597236084513</v>
       </c>
       <c r="P34" t="n">
-        <v>4806.22561372287</v>
+        <v>1514.473471003972</v>
       </c>
       <c r="Q34" t="n">
-        <v>4850.096907571468</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="R34" t="n">
-        <v>4850.096907571468</v>
+        <v>1450.02974509006</v>
       </c>
       <c r="S34" t="n">
-        <v>4850.096907571468</v>
+        <v>1450.02974509006</v>
       </c>
       <c r="T34" t="n">
-        <v>4626.573772855831</v>
+        <v>1450.02974509006</v>
       </c>
       <c r="U34" t="n">
-        <v>4337.448482331025</v>
+        <v>1450.02974509006</v>
       </c>
       <c r="V34" t="n">
-        <v>4082.763994125138</v>
+        <v>1450.02974509006</v>
       </c>
       <c r="W34" t="n">
-        <v>4082.763994125138</v>
+        <v>1450.02974509006</v>
       </c>
       <c r="X34" t="n">
-        <v>4082.763994125138</v>
+        <v>1450.02974509006</v>
       </c>
       <c r="Y34" t="n">
-        <v>3861.971414981608</v>
+        <v>1320.181028220183</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>778.6852593899023</v>
+        <v>1601.585669802682</v>
       </c>
       <c r="C35" t="n">
-        <v>409.7227424494905</v>
+        <v>1601.585669802682</v>
       </c>
       <c r="D35" t="n">
-        <v>51.45704384274001</v>
+        <v>1341.549526693646</v>
       </c>
       <c r="E35" t="n">
-        <v>51.45704384274001</v>
+        <v>955.7612740954019</v>
       </c>
       <c r="F35" t="n">
-        <v>51.45704384274001</v>
+        <v>544.7753693057944</v>
       </c>
       <c r="G35" t="n">
-        <v>51.45704384274001</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="H35" t="n">
-        <v>51.45704384274001</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="I35" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J35" t="n">
         <v>164.0992112610951</v>
       </c>
       <c r="K35" t="n">
-        <v>704.5630974430045</v>
+        <v>383.6591389975515</v>
       </c>
       <c r="L35" t="n">
-        <v>1013.848364474894</v>
+        <v>692.9444060294406</v>
       </c>
       <c r="M35" t="n">
-        <v>1389.657254382998</v>
+        <v>1068.753295937546</v>
       </c>
       <c r="N35" t="n">
-        <v>1801.736987801629</v>
+        <v>1455.256974959294</v>
       </c>
       <c r="O35" t="n">
-        <v>2153.366190700428</v>
+        <v>1806.886177858094</v>
       </c>
       <c r="P35" t="n">
-        <v>2418.972579286472</v>
+        <v>2208.780738533167</v>
       </c>
       <c r="Q35" t="n">
-        <v>2570.259169068457</v>
+        <v>2570.259169068458</v>
       </c>
       <c r="R35" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S35" t="n">
-        <v>2479.725687167105</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.725687167105</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U35" t="n">
-        <v>2226.121892240479</v>
+        <v>2319.248397210375</v>
       </c>
       <c r="V35" t="n">
-        <v>1895.059004896908</v>
+        <v>1988.185509866804</v>
       </c>
       <c r="W35" t="n">
-        <v>1542.290349626794</v>
+        <v>1988.185509866804</v>
       </c>
       <c r="X35" t="n">
-        <v>1168.824591365714</v>
+        <v>1988.185509866804</v>
       </c>
       <c r="Y35" t="n">
-        <v>778.6852593899023</v>
+        <v>1988.185509866804</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>763.9168804133423</v>
       </c>
       <c r="D36" t="n">
-        <v>614.9824707520911</v>
+        <v>614.9824707520909</v>
       </c>
       <c r="E36" t="n">
-        <v>455.7450157466355</v>
+        <v>455.7450157466353</v>
       </c>
       <c r="F36" t="n">
-        <v>309.2104577735206</v>
+        <v>309.2104577735204</v>
       </c>
       <c r="G36" t="n">
-        <v>172.3569989104735</v>
+        <v>172.3569989104732</v>
       </c>
       <c r="H36" t="n">
         <v>77.11927188230874</v>
       </c>
       <c r="I36" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J36" t="n">
-        <v>99.72810012401972</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K36" t="n">
-        <v>260.3858485343756</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L36" t="n">
-        <v>522.7325588248386</v>
+        <v>909.3832684542963</v>
       </c>
       <c r="M36" t="n">
-        <v>848.2356638111658</v>
+        <v>1234.886373440623</v>
       </c>
       <c r="N36" t="n">
-        <v>1485.016581365073</v>
+        <v>1583.413221966968</v>
       </c>
       <c r="O36" t="n">
-        <v>2121.797498918981</v>
+        <v>1880.027402923163</v>
       </c>
       <c r="P36" t="n">
-        <v>2476.558874091374</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q36" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314666</v>
       </c>
       <c r="R36" t="n">
         <v>2572.852192137001</v>
@@ -7046,7 +7046,7 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T36" t="n">
-        <v>2239.686617951057</v>
+        <v>2239.686617951058</v>
       </c>
       <c r="U36" t="n">
         <v>2011.586510644968</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>535.3971111520681</v>
+        <v>747.3593186017133</v>
       </c>
       <c r="C37" t="n">
-        <v>366.4609282241611</v>
+        <v>578.4231356738064</v>
       </c>
       <c r="D37" t="n">
-        <v>366.4609282241611</v>
+        <v>578.4231356738064</v>
       </c>
       <c r="E37" t="n">
-        <v>366.4609282241611</v>
+        <v>430.5100420914133</v>
       </c>
       <c r="F37" t="n">
-        <v>219.5709807262508</v>
+        <v>329.2595638553958</v>
       </c>
       <c r="G37" t="n">
-        <v>51.45704384274001</v>
+        <v>161.145626971885</v>
       </c>
       <c r="H37" t="n">
-        <v>51.45704384274001</v>
+        <v>161.145626971885</v>
       </c>
       <c r="I37" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J37" t="n">
-        <v>68.09327731914514</v>
+        <v>68.09327731914516</v>
       </c>
       <c r="K37" t="n">
         <v>225.2685560834543</v>
@@ -7119,28 +7119,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R37" t="n">
-        <v>1457.975431632923</v>
+        <v>1404.48485078137</v>
       </c>
       <c r="S37" t="n">
-        <v>1457.975431632923</v>
+        <v>1404.48485078137</v>
       </c>
       <c r="T37" t="n">
-        <v>1234.452296917286</v>
+        <v>1404.48485078137</v>
       </c>
       <c r="U37" t="n">
-        <v>1234.452296917286</v>
+        <v>1404.48485078137</v>
       </c>
       <c r="V37" t="n">
-        <v>1234.452296917286</v>
+        <v>1149.800362575483</v>
       </c>
       <c r="W37" t="n">
-        <v>945.0351268803252</v>
+        <v>1149.800362575483</v>
       </c>
       <c r="X37" t="n">
-        <v>717.0455759823078</v>
+        <v>1149.800362575483</v>
       </c>
       <c r="Y37" t="n">
-        <v>717.0455759823078</v>
+        <v>929.007783431953</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>859.8889786685263</v>
+        <v>1657.791837451201</v>
       </c>
       <c r="C38" t="n">
-        <v>490.9264617281146</v>
+        <v>1288.829320510789</v>
       </c>
       <c r="D38" t="n">
-        <v>490.9264617281146</v>
+        <v>930.5636219040387</v>
       </c>
       <c r="E38" t="n">
-        <v>105.1382091298703</v>
+        <v>544.7753693057944</v>
       </c>
       <c r="F38" t="n">
-        <v>105.1382091298703</v>
+        <v>544.7753693057944</v>
       </c>
       <c r="G38" t="n">
-        <v>51.45704384274001</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="H38" t="n">
-        <v>51.45704384274001</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="I38" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J38" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K38" t="n">
-        <v>383.6591389975515</v>
+        <v>551.0647880179044</v>
       </c>
       <c r="L38" t="n">
-        <v>829.2325781184691</v>
+        <v>860.3500550497936</v>
       </c>
       <c r="M38" t="n">
-        <v>1205.041468026574</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N38" t="n">
-        <v>1591.545147048323</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O38" t="n">
-        <v>1943.174349947123</v>
+        <v>1974.291826878447</v>
       </c>
       <c r="P38" t="n">
-        <v>2208.780738533166</v>
+        <v>2239.898215464491</v>
       </c>
       <c r="Q38" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R38" t="n">
         <v>2572.852192137001</v>
@@ -7204,22 +7204,22 @@
         <v>2572.852192137001</v>
       </c>
       <c r="T38" t="n">
-        <v>2362.862564239654</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U38" t="n">
-        <v>2362.862564239654</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="V38" t="n">
-        <v>2362.862564239654</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="W38" t="n">
-        <v>2010.09390896954</v>
+        <v>2421.396927688093</v>
       </c>
       <c r="X38" t="n">
-        <v>1636.62815070846</v>
+        <v>2047.931169427012</v>
       </c>
       <c r="Y38" t="n">
-        <v>1246.488818732648</v>
+        <v>1657.791837451201</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>938.3699096944694</v>
+        <v>938.3699096944692</v>
       </c>
       <c r="C39" t="n">
-        <v>763.9168804133424</v>
+        <v>763.9168804133423</v>
       </c>
       <c r="D39" t="n">
-        <v>614.9824707520911</v>
+        <v>614.982470752091</v>
       </c>
       <c r="E39" t="n">
         <v>455.7450157466357</v>
@@ -7250,31 +7250,31 @@
         <v>77.11927188230874</v>
       </c>
       <c r="I39" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J39" t="n">
-        <v>99.72810012401972</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K39" t="n">
-        <v>260.3858485343756</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L39" t="n">
-        <v>522.7325588248386</v>
+        <v>1064.126680999498</v>
       </c>
       <c r="M39" t="n">
-        <v>1159.513476378746</v>
+        <v>1389.629785985825</v>
       </c>
       <c r="N39" t="n">
-        <v>1605.966412772947</v>
+        <v>1738.15663451217</v>
       </c>
       <c r="O39" t="n">
-        <v>2242.747330326854</v>
+        <v>2034.770815468364</v>
       </c>
       <c r="P39" t="n">
-        <v>2461.473294269038</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q39" t="n">
-        <v>2557.766612314665</v>
+        <v>2557.766612314666</v>
       </c>
       <c r="R39" t="n">
         <v>2572.852192137001</v>
@@ -7283,7 +7283,7 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T39" t="n">
-        <v>2239.686617951057</v>
+        <v>2239.686617951058</v>
       </c>
       <c r="U39" t="n">
         <v>2011.586510644968</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>815.1851490685981</v>
+        <v>477.1726574377889</v>
       </c>
       <c r="C40" t="n">
-        <v>646.2489661406912</v>
+        <v>477.1726574377889</v>
       </c>
       <c r="D40" t="n">
-        <v>496.1323267283555</v>
+        <v>477.1726574377889</v>
       </c>
       <c r="E40" t="n">
-        <v>348.2192331459623</v>
+        <v>329.2595638553958</v>
       </c>
       <c r="F40" t="n">
-        <v>201.329285648052</v>
+        <v>329.2595638553958</v>
       </c>
       <c r="G40" t="n">
-        <v>201.329285648052</v>
+        <v>161.145626971885</v>
       </c>
       <c r="H40" t="n">
-        <v>51.45704384274001</v>
+        <v>161.145626971885</v>
       </c>
       <c r="I40" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J40" t="n">
-        <v>68.09327731914514</v>
+        <v>68.09327731914516</v>
       </c>
       <c r="K40" t="n">
         <v>225.2685560834543</v>
@@ -7356,28 +7356,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.51245690961</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S40" t="n">
-        <v>1290.662216418015</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="T40" t="n">
-        <v>1290.662216418015</v>
+        <v>1289.276735828243</v>
       </c>
       <c r="U40" t="n">
-        <v>1290.662216418015</v>
+        <v>1000.151445303438</v>
       </c>
       <c r="V40" t="n">
-        <v>1035.977728212128</v>
+        <v>1000.151445303438</v>
       </c>
       <c r="W40" t="n">
-        <v>1035.977728212128</v>
+        <v>1000.151445303438</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.977728212128</v>
+        <v>772.1618944054206</v>
       </c>
       <c r="Y40" t="n">
-        <v>815.1851490685981</v>
+        <v>551.3693152618905</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1069.878606565873</v>
+        <v>1169.043466909361</v>
       </c>
       <c r="C41" t="n">
-        <v>1069.878606565873</v>
+        <v>800.0809499689497</v>
       </c>
       <c r="D41" t="n">
-        <v>853.2342241017717</v>
+        <v>800.0809499689497</v>
       </c>
       <c r="E41" t="n">
-        <v>467.4459715035275</v>
+        <v>539.7723464346145</v>
       </c>
       <c r="F41" t="n">
-        <v>467.4459715035275</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="G41" t="n">
-        <v>51.45704384274001</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="H41" t="n">
-        <v>51.45704384274001</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="I41" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J41" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K41" t="n">
-        <v>383.6591389975515</v>
+        <v>551.0647880179044</v>
       </c>
       <c r="L41" t="n">
-        <v>692.9444060294406</v>
+        <v>860.3500550497936</v>
       </c>
       <c r="M41" t="n">
-        <v>1130.081594124772</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N41" t="n">
-        <v>1516.585273146521</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O41" t="n">
-        <v>2153.366190700428</v>
+        <v>1974.291826878447</v>
       </c>
       <c r="P41" t="n">
-        <v>2418.972579286472</v>
+        <v>2239.898215464491</v>
       </c>
       <c r="Q41" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R41" t="n">
         <v>2572.852192137001</v>
@@ -7444,19 +7444,19 @@
         <v>2572.852192137001</v>
       </c>
       <c r="U41" t="n">
-        <v>2572.852192137001</v>
+        <v>2319.248397210375</v>
       </c>
       <c r="V41" t="n">
-        <v>2572.852192137001</v>
+        <v>2319.248397210375</v>
       </c>
       <c r="W41" t="n">
-        <v>2220.083536866886</v>
+        <v>2319.248397210375</v>
       </c>
       <c r="X41" t="n">
-        <v>1846.617778605807</v>
+        <v>1945.782638949295</v>
       </c>
       <c r="Y41" t="n">
-        <v>1456.478446629995</v>
+        <v>1555.643306973483</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>77.11927188230874</v>
       </c>
       <c r="I42" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J42" t="n">
-        <v>99.72810012401972</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K42" t="n">
-        <v>260.3858485343756</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L42" t="n">
-        <v>522.7325588248386</v>
+        <v>1064.126680999497</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.437224854622</v>
+        <v>1389.629785985825</v>
       </c>
       <c r="N42" t="n">
-        <v>1437.964073380967</v>
+        <v>1738.156634512169</v>
       </c>
       <c r="O42" t="n">
-        <v>1734.578254337162</v>
+        <v>2034.770815468364</v>
       </c>
       <c r="P42" t="n">
-        <v>2268.582359232883</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q42" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R42" t="n">
         <v>2572.852192137001</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>219.5709807262508</v>
+        <v>201.5736832550758</v>
       </c>
       <c r="C43" t="n">
-        <v>219.5709807262508</v>
+        <v>201.5736832550758</v>
       </c>
       <c r="D43" t="n">
-        <v>219.5709807262508</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="E43" t="n">
-        <v>219.5709807262508</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="F43" t="n">
-        <v>219.5709807262508</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="G43" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H43" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I43" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J43" t="n">
-        <v>68.09327731914514</v>
+        <v>68.09327731914516</v>
       </c>
       <c r="K43" t="n">
         <v>225.2685560834543</v>
@@ -7593,28 +7593,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R43" t="n">
-        <v>1512.799870543881</v>
+        <v>1404.48485078137</v>
       </c>
       <c r="S43" t="n">
-        <v>1313.949630052285</v>
+        <v>1205.634610289775</v>
       </c>
       <c r="T43" t="n">
-        <v>1090.426495336648</v>
+        <v>982.1114755741376</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.426495336648</v>
+        <v>692.9861850493322</v>
       </c>
       <c r="V43" t="n">
-        <v>835.7420071307612</v>
+        <v>438.3016968434454</v>
       </c>
       <c r="W43" t="n">
-        <v>668.3531107677982</v>
+        <v>438.3016968434454</v>
       </c>
       <c r="X43" t="n">
-        <v>440.3635598697809</v>
+        <v>383.2221480853154</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.5709807262508</v>
+        <v>383.2221480853154</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1929.109065234562</v>
+        <v>1288.829320510789</v>
       </c>
       <c r="C44" t="n">
-        <v>1929.109065234562</v>
+        <v>1288.829320510789</v>
       </c>
       <c r="D44" t="n">
-        <v>1571.189604538722</v>
+        <v>930.5636219040387</v>
       </c>
       <c r="E44" t="n">
-        <v>1185.401351940478</v>
+        <v>544.7753693057944</v>
       </c>
       <c r="F44" t="n">
-        <v>774.4154471508701</v>
+        <v>544.7753693057944</v>
       </c>
       <c r="G44" t="n">
-        <v>358.4265194900827</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="H44" t="n">
-        <v>51.45704384274001</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="I44" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J44" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K44" t="n">
-        <v>444.9874371847777</v>
+        <v>665.0798961656335</v>
       </c>
       <c r="L44" t="n">
-        <v>754.2727042166669</v>
+        <v>974.3651631975226</v>
       </c>
       <c r="M44" t="n">
-        <v>1130.081594124772</v>
+        <v>1350.174053105628</v>
       </c>
       <c r="N44" t="n">
-        <v>1516.585273146521</v>
+        <v>1736.677732127376</v>
       </c>
       <c r="O44" t="n">
-        <v>2153.366190700428</v>
+        <v>2088.306935026176</v>
       </c>
       <c r="P44" t="n">
-        <v>2418.972579286472</v>
+        <v>2353.91332361222</v>
       </c>
       <c r="Q44" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R44" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S44" t="n">
-        <v>2572.852192137001</v>
+        <v>2529.161915374696</v>
       </c>
       <c r="T44" t="n">
-        <v>2572.852192137001</v>
+        <v>2319.172287477349</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.248397210374</v>
+        <v>2065.568492550723</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.248397210374</v>
+        <v>2065.568492550723</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.248397210374</v>
+        <v>2065.568492550723</v>
       </c>
       <c r="X44" t="n">
-        <v>2319.248397210374</v>
+        <v>2065.568492550723</v>
       </c>
       <c r="Y44" t="n">
-        <v>1929.109065234562</v>
+        <v>1675.429160574911</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>938.3699096944694</v>
+        <v>938.3699096944697</v>
       </c>
       <c r="C45" t="n">
-        <v>763.9168804133424</v>
+        <v>763.9168804133427</v>
       </c>
       <c r="D45" t="n">
         <v>614.9824707520911</v>
@@ -7724,31 +7724,31 @@
         <v>77.11927188230874</v>
       </c>
       <c r="I45" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J45" t="n">
         <v>224.5582251110245</v>
       </c>
       <c r="K45" t="n">
-        <v>385.2159735213803</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L45" t="n">
-        <v>647.5626838118435</v>
+        <v>909.3832684542963</v>
       </c>
       <c r="M45" t="n">
-        <v>973.0657887981706</v>
+        <v>1234.886373440623</v>
       </c>
       <c r="N45" t="n">
-        <v>1321.592637324515</v>
+        <v>1583.413221966968</v>
       </c>
       <c r="O45" t="n">
-        <v>1734.578254337162</v>
+        <v>1880.027402923163</v>
       </c>
       <c r="P45" t="n">
-        <v>2268.582359232883</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q45" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314666</v>
       </c>
       <c r="R45" t="n">
         <v>2572.852192137001</v>
@@ -7757,10 +7757,10 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T45" t="n">
-        <v>2239.686617951057</v>
+        <v>2239.686617951058</v>
       </c>
       <c r="U45" t="n">
-        <v>2011.586510644968</v>
+        <v>2011.586510644969</v>
       </c>
       <c r="V45" t="n">
         <v>1776.434402413226</v>
@@ -7769,10 +7769,10 @@
         <v>1522.197045685024</v>
       </c>
       <c r="X45" t="n">
-        <v>1314.345545479491</v>
+        <v>1314.345545479492</v>
       </c>
       <c r="Y45" t="n">
-        <v>1106.585246714537</v>
+        <v>1106.585246714538</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1580.434429581414</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="C46" t="n">
-        <v>1411.498246653507</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="D46" t="n">
-        <v>1261.381607241172</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="E46" t="n">
-        <v>1261.381607241172</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="F46" t="n">
-        <v>1261.381607241172</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="G46" t="n">
-        <v>1261.381607241172</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H46" t="n">
-        <v>1111.50936543586</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I46" t="n">
-        <v>1111.50936543586</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J46" t="n">
-        <v>1128.145598912265</v>
+        <v>68.09327731914516</v>
       </c>
       <c r="K46" t="n">
-        <v>1285.320877676574</v>
+        <v>225.2685560834543</v>
       </c>
       <c r="L46" t="n">
-        <v>1541.977555543348</v>
+        <v>481.9252339502281</v>
       </c>
       <c r="M46" t="n">
-        <v>1822.975159526739</v>
+        <v>762.9228379336196</v>
       </c>
       <c r="N46" t="n">
-        <v>2102.725884969786</v>
+        <v>1042.673563376666</v>
       </c>
       <c r="O46" t="n">
-        <v>2345.104663368943</v>
+        <v>1285.052341775823</v>
       </c>
       <c r="P46" t="n">
-        <v>2528.980898288402</v>
+        <v>1468.928576695282</v>
       </c>
       <c r="Q46" t="n">
-        <v>2572.852192137001</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="R46" t="n">
-        <v>2572.852192137001</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S46" t="n">
-        <v>2568.614905871437</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="T46" t="n">
-        <v>2568.614905871437</v>
+        <v>1090.426495336648</v>
       </c>
       <c r="U46" t="n">
-        <v>2279.489615346632</v>
+        <v>801.3012048118427</v>
       </c>
       <c r="V46" t="n">
-        <v>2279.489615346632</v>
+        <v>546.6167166059558</v>
       </c>
       <c r="W46" t="n">
-        <v>1990.072445309671</v>
+        <v>272.2496229862701</v>
       </c>
       <c r="X46" t="n">
-        <v>1762.082894411654</v>
+        <v>272.2496229862701</v>
       </c>
       <c r="Y46" t="n">
-        <v>1762.082894411654</v>
+        <v>51.45704384274002</v>
       </c>
     </row>
   </sheetData>
@@ -8692,10 +8692,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>71.948400418966</v>
       </c>
       <c r="L11" t="n">
-        <v>330.8036873959784</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>19.1761235558746</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>218.4979448477591</v>
+        <v>291.1657262904677</v>
       </c>
       <c r="O12" t="n">
-        <v>343.6027642401147</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>129.6059880404963</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>137.6648202919484</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>115.1667759067969</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>156.3064773183856</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>47.92099641429758</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>252.8052914466251</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.17451950522786</v>
+        <v>180.8831957797791</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>156.3064773183856</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>243.6379404479366</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>330.8036873959784</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>19.17612355587477</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>115.1667759067966</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>122.1715468766399</v>
+        <v>156.3064773183856</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>291.1657262904676</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>343.6027642401147</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9649,10 +9649,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>263.17497875961</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>206.62823561037</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>156.3064773183852</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>136.8724145076845</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>309.2056887710584</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>206.6282356103718</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>42.14735447073494</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>156.3064773183852</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>60.64108939268181</v>
       </c>
       <c r="K29" t="n">
-        <v>215.6898867917728</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>59.85290890705576</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>156.3064773183852</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>275.3415878404585</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>60.64108939268105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>292.8356224801686</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>156.3064773183852</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>25.83439838068813</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>137.6648202919482</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>291.1657262904675</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>343.6027642401145</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>137.4095062931402</v>
+        <v>156.3064773183854</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>137.664820291948</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>115.1667759067966</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>156.3064773183856</v>
       </c>
       <c r="M39" t="n">
-        <v>314.422032896546</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>98.91524027056096</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>343.6027642401145</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>61.94777594669318</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>288.0320350051595</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>115.1667759067966</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>156.3064773183851</v>
       </c>
       <c r="M42" t="n">
-        <v>243.637940447936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>61.94777594669324</v>
+        <v>115.166775906797</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>288.0320350051595</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>117.5469051075271</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>156.3064773183854</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>158.932292887696</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.8290383841796</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>162.109450080881</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.63894450298639</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S13" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.2879033684809</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>76.34226628124719</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>87.19900300740409</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H14" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>207.8897316183737</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>28.48780396029014</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.07259487485734</v>
       </c>
       <c r="T16" t="n">
         <v>221.2879033684809</v>
@@ -23712,16 +23712,16 @@
         <v>286.2340376195573</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.45224577877303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>252.7783293818445</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>88.44084614948224</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H19" t="n">
-        <v>137.9136814605952</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S19" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>22.02457769004451</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>253.3873395829255</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T20" t="n">
         <v>207.8897316183737</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0677569773601</v>
+        <v>94.22489536219788</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4327975146757</v>
@@ -24147,7 +24147,7 @@
         <v>148.3735193872588</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>151.4532933405835</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>22.02457769004448</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4327975146757</v>
+        <v>120.5190302202239</v>
       </c>
       <c r="H25" t="n">
         <v>148.3735193872588</v>
@@ -24414,7 +24414,7 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S25" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>153.6102928035151</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4327975146757</v>
@@ -24654,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2340376195573</v>
+        <v>41.13793443358219</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>262.7403756653398</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>94.49007147335388</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H31" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S31" t="n">
-        <v>196.8617380866793</v>
+        <v>47.14312234955588</v>
       </c>
       <c r="T31" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>80.57702021539845</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>196.8617380866793</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>90.03442365091695</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>97.2472599427374</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>303.8997808908692</v>
       </c>
       <c r="I35" t="n">
-        <v>76.55610382424422</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.66791071940051</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T35" t="n">
         <v>207.8897316183737</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.18307456927387</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>148.3735193872588</v>
       </c>
       <c r="I37" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>52.95567504303741</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>196.8617380866793</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U37" t="n">
         <v>286.2340376195573</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>358.6846847499206</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>303.8997808908692</v>
       </c>
       <c r="I38" t="n">
-        <v>76.55610382424422</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>129.863150639597</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U38" t="n">
         <v>251.0677569773601</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>199.3002569129935</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>106.3772889360767</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I40" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.17733006695778</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T40" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>140.2051029812226</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>124.22485257327</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H41" t="n">
         <v>303.8997808908692</v>
       </c>
       <c r="I41" t="n">
-        <v>76.55610382424422</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>207.8897316183737</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H43" t="n">
         <v>148.3735193872588</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>120.8079909372576</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>171.1809021184885</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3427755318010099</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I44" t="n">
-        <v>76.55610382424422</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>129.863150639597</v>
+        <v>86.60977664491497</v>
       </c>
       <c r="T44" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>166.4327975146757</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I46" t="n">
         <v>108.5916972978535</v>
@@ -26073,25 +26073,25 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S46" t="n">
-        <v>192.6668246837711</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>14.89957565310215</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>605556.4811630647</v>
+        <v>605556.4811630646</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605556.4811630648</v>
+        <v>605556.4811630647</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>830947.2570727943</v>
+        <v>830947.2570727941</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>830947.2570727941</v>
+        <v>830947.2570727943</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>655421.0709736306</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="D2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="E2" t="n">
-        <v>486211.1804525481</v>
+        <v>486211.1804525484</v>
       </c>
       <c r="F2" t="n">
-        <v>486211.1804525483</v>
+        <v>486211.1804525485</v>
       </c>
       <c r="G2" t="n">
-        <v>486211.1804525484</v>
+        <v>486211.1804525485</v>
       </c>
       <c r="H2" t="n">
         <v>486211.1804525485</v>
       </c>
       <c r="I2" t="n">
-        <v>626904.6786157454</v>
+        <v>626904.6786157452</v>
       </c>
       <c r="J2" t="n">
+        <v>626904.6786157452</v>
+      </c>
+      <c r="K2" t="n">
+        <v>626904.6786157448</v>
+      </c>
+      <c r="L2" t="n">
         <v>626904.678615745</v>
       </c>
-      <c r="K2" t="n">
-        <v>626904.6786157452</v>
-      </c>
-      <c r="L2" t="n">
-        <v>626904.6786157446</v>
-      </c>
       <c r="M2" t="n">
-        <v>486211.1804525482</v>
+        <v>486211.1804525484</v>
       </c>
       <c r="N2" t="n">
-        <v>486211.1804525482</v>
+        <v>486211.1804525484</v>
       </c>
       <c r="O2" t="n">
-        <v>486211.1804525483</v>
+        <v>486211.1804525484</v>
       </c>
       <c r="P2" t="n">
-        <v>486211.1804525483</v>
+        <v>486211.1804525481</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151391.7979932623</v>
+        <v>151391.7979932622</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18416.64140604452</v>
+        <v>18416.64140604451</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>28699.92018768275</v>
+        <v>28699.92018768274</v>
       </c>
       <c r="F4" t="n">
         <v>28699.92018768275</v>
@@ -26435,31 +26435,31 @@
         <v>28699.92018768274</v>
       </c>
       <c r="H4" t="n">
-        <v>28699.92018768275</v>
+        <v>28699.92018768274</v>
       </c>
       <c r="I4" t="n">
-        <v>87286.32355249723</v>
+        <v>87286.3235524972</v>
       </c>
       <c r="J4" t="n">
         <v>87286.32355249723</v>
       </c>
       <c r="K4" t="n">
+        <v>87286.32355249721</v>
+      </c>
+      <c r="L4" t="n">
         <v>87286.32355249723</v>
-      </c>
-      <c r="L4" t="n">
-        <v>87286.3235524972</v>
       </c>
       <c r="M4" t="n">
         <v>28699.92018768274</v>
       </c>
       <c r="N4" t="n">
-        <v>28699.92018768273</v>
+        <v>28699.92018768274</v>
       </c>
       <c r="O4" t="n">
-        <v>28699.92018768273</v>
+        <v>28699.92018768274</v>
       </c>
       <c r="P4" t="n">
-        <v>28699.92018768273</v>
+        <v>28699.92018768275</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>57944.35528287131</v>
       </c>
       <c r="I5" t="n">
-        <v>92558.47495747523</v>
+        <v>92558.47495747521</v>
       </c>
       <c r="J5" t="n">
         <v>92558.47495747523</v>
@@ -26499,7 +26499,7 @@
         <v>92558.47495747523</v>
       </c>
       <c r="L5" t="n">
-        <v>92558.47495747521</v>
+        <v>92558.47495747523</v>
       </c>
       <c r="M5" t="n">
         <v>57944.35528287131</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>207021.0723606717</v>
+        <v>206976.9365819906</v>
       </c>
       <c r="C6" t="n">
-        <v>207021.0723606717</v>
+        <v>206976.9365819904</v>
       </c>
       <c r="D6" t="n">
-        <v>207021.0723606717</v>
+        <v>206976.9365819905</v>
       </c>
       <c r="E6" t="n">
-        <v>-486688.9608221017</v>
+        <v>-492020.9056795664</v>
       </c>
       <c r="F6" t="n">
-        <v>399566.9049819943</v>
+        <v>394234.9601245295</v>
       </c>
       <c r="G6" t="n">
-        <v>399566.9049819943</v>
+        <v>394234.9601245296</v>
       </c>
       <c r="H6" t="n">
-        <v>399566.9049819945</v>
+        <v>394234.9601245295</v>
       </c>
       <c r="I6" t="n">
-        <v>295668.0821125107</v>
+        <v>294732.8090726454</v>
       </c>
       <c r="J6" t="n">
-        <v>447059.8801057726</v>
+        <v>446124.6070659077</v>
       </c>
       <c r="K6" t="n">
-        <v>447059.8801057728</v>
+        <v>446124.6070659073</v>
       </c>
       <c r="L6" t="n">
-        <v>447059.8801057722</v>
+        <v>446124.6070659076</v>
       </c>
       <c r="M6" t="n">
-        <v>381150.2635759496</v>
+        <v>375818.3187184849</v>
       </c>
       <c r="N6" t="n">
-        <v>399566.9049819942</v>
+        <v>394234.9601245294</v>
       </c>
       <c r="O6" t="n">
-        <v>399566.9049819943</v>
+        <v>394234.9601245294</v>
       </c>
       <c r="P6" t="n">
-        <v>399566.9049819943</v>
+        <v>394234.9601245291</v>
       </c>
     </row>
   </sheetData>
@@ -26822,16 +26822,16 @@
         <v>1212.524226892867</v>
       </c>
       <c r="M4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="N4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="O4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="P4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>569.311178858617</v>
+        <v>569.3111788586168</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>73.90186917563328</v>
+        <v>73.90186917563324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>113.7799670892476</v>
       </c>
       <c r="K11" t="n">
-        <v>221.7777047842993</v>
+        <v>293.7261052032653</v>
       </c>
       <c r="L11" t="n">
-        <v>643.2130480342503</v>
+        <v>312.4093606382718</v>
       </c>
       <c r="M11" t="n">
         <v>379.604939301116</v>
@@ -35427,13 +35427,13 @@
         <v>355.1810130290906</v>
       </c>
       <c r="P11" t="n">
-        <v>287.4654049559187</v>
+        <v>268.2892814000441</v>
       </c>
       <c r="Q11" t="n">
-        <v>152.8147371535206</v>
+        <v>365.1297278134252</v>
       </c>
       <c r="R11" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K12" t="n">
         <v>162.2805539498544</v>
@@ -35500,19 +35500,19 @@
         <v>328.7910151377042</v>
       </c>
       <c r="N12" t="n">
-        <v>570.5452665915417</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="O12" t="n">
-        <v>643.2130480342503</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P12" t="n">
-        <v>220.9353171133174</v>
+        <v>350.5413051538137</v>
       </c>
       <c r="Q12" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K14" t="n">
         <v>221.7777047842993</v>
       </c>
       <c r="L14" t="n">
-        <v>450.0741809302203</v>
+        <v>312.4093606382718</v>
       </c>
       <c r="M14" t="n">
         <v>379.604939301116</v>
@@ -35664,13 +35664,13 @@
         <v>355.1810130290906</v>
       </c>
       <c r="P14" t="n">
-        <v>268.2892814000441</v>
+        <v>383.456057306841</v>
       </c>
       <c r="Q14" t="n">
-        <v>365.1297278134252</v>
+        <v>152.8147371535206</v>
       </c>
       <c r="R14" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>426.745790962433</v>
       </c>
       <c r="L15" t="n">
-        <v>264.9966770610739</v>
+        <v>421.3031543794594</v>
       </c>
       <c r="M15" t="n">
         <v>328.7910151377042</v>
@@ -35743,10 +35743,10 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P15" t="n">
-        <v>539.3980857532545</v>
+        <v>220.9353171133174</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.186974238163</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R15" t="n">
         <v>15.23795941650063</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K17" t="n">
         <v>221.7777047842993</v>
@@ -35895,7 +35895,7 @@
         <v>379.604939301116</v>
       </c>
       <c r="N17" t="n">
-        <v>643.2130480342503</v>
+        <v>390.4077565876252</v>
       </c>
       <c r="O17" t="n">
         <v>355.1810130290906</v>
@@ -35904,7 +35904,7 @@
         <v>268.2892814000441</v>
       </c>
       <c r="Q17" t="n">
-        <v>249.9892566587484</v>
+        <v>333.6979329332997</v>
       </c>
       <c r="R17" t="n">
         <v>2.619215220750931</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K18" t="n">
-        <v>162.2805539498544</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L18" t="n">
-        <v>264.9966770610739</v>
+        <v>421.3031543794594</v>
       </c>
       <c r="M18" t="n">
         <v>328.7910151377042</v>
@@ -35977,16 +35977,16 @@
         <v>352.0473217437826</v>
       </c>
       <c r="O18" t="n">
-        <v>543.2482242420722</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P18" t="n">
-        <v>539.3980857532545</v>
+        <v>220.9353171133174</v>
       </c>
       <c r="Q18" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K20" t="n">
         <v>221.7777047842993</v>
       </c>
       <c r="L20" t="n">
-        <v>643.2130480342503</v>
+        <v>312.4093606382718</v>
       </c>
       <c r="M20" t="n">
-        <v>398.7810628569908</v>
+        <v>379.604939301116</v>
       </c>
       <c r="N20" t="n">
         <v>390.4077565876252</v>
@@ -36141,10 +36141,10 @@
         <v>268.2892814000441</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.8147371535206</v>
+        <v>267.9815130603172</v>
       </c>
       <c r="R20" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K21" t="n">
-        <v>162.2805539498544</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L21" t="n">
-        <v>387.1682239377137</v>
+        <v>421.3031543794594</v>
       </c>
       <c r="M21" t="n">
         <v>328.7910151377042</v>
       </c>
       <c r="N21" t="n">
-        <v>643.2130480342503</v>
+        <v>352.0473217437826</v>
       </c>
       <c r="O21" t="n">
-        <v>643.2130480342503</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P21" t="n">
         <v>220.9353171133174</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.2659778238654</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R21" t="n">
         <v>15.23795941650063</v>
@@ -36369,10 +36369,10 @@
         <v>829.1184727939485</v>
       </c>
       <c r="N23" t="n">
-        <v>653.5827353472353</v>
+        <v>827.7546809996094</v>
       </c>
       <c r="O23" t="n">
-        <v>735.981194291836</v>
+        <v>561.8092486394606</v>
       </c>
       <c r="P23" t="n">
         <v>590.0879895715268</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K24" t="n">
         <v>426.745790962433</v>
       </c>
       <c r="L24" t="n">
-        <v>635.837022364533</v>
+        <v>421.3031543794591</v>
       </c>
       <c r="M24" t="n">
         <v>328.7910151377042</v>
@@ -36451,16 +36451,16 @@
         <v>352.0473217437826</v>
       </c>
       <c r="O24" t="n">
-        <v>436.4826983018201</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P24" t="n">
         <v>220.9353171133174</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.2659778238654</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>545.923117355464</v>
       </c>
       <c r="L26" t="n">
-        <v>621.6150494093303</v>
+        <v>730.0705751887223</v>
       </c>
       <c r="M26" t="n">
         <v>829.1184727939485</v>
@@ -36609,7 +36609,7 @@
         <v>827.7546809996094</v>
       </c>
       <c r="O26" t="n">
-        <v>735.981194291836</v>
+        <v>561.8092486394625</v>
       </c>
       <c r="P26" t="n">
         <v>590.0879895715268</v>
@@ -36618,7 +36618,7 @@
         <v>365.1297278134252</v>
       </c>
       <c r="R26" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>174.8496780487722</v>
       </c>
       <c r="K27" t="n">
-        <v>204.4279084205893</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L27" t="n">
-        <v>264.9966770610739</v>
+        <v>421.3031543794591</v>
       </c>
       <c r="M27" t="n">
         <v>328.7910151377042</v>
@@ -36688,7 +36688,7 @@
         <v>352.0473217437826</v>
       </c>
       <c r="O27" t="n">
-        <v>693.4726030708651</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P27" t="n">
         <v>220.9353171133174</v>
@@ -36697,7 +36697,7 @@
         <v>307.3432655597145</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.8765822613213</v>
+        <v>174.4210564819294</v>
       </c>
       <c r="K29" t="n">
-        <v>437.4675915760721</v>
+        <v>545.923117355464</v>
       </c>
       <c r="L29" t="n">
         <v>730.0705751887223</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>108.6115516154191</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K30" t="n">
-        <v>162.2805539498544</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L30" t="n">
         <v>264.9966770610739</v>
@@ -36925,16 +36925,16 @@
         <v>352.0473217437826</v>
       </c>
       <c r="O30" t="n">
-        <v>693.4726030708651</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P30" t="n">
-        <v>539.3980857532545</v>
+        <v>377.2417944317025</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.2659778238654</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K32" t="n">
         <v>545.923117355464</v>
@@ -37077,7 +37077,7 @@
         <v>730.0705751887223</v>
       </c>
       <c r="M32" t="n">
-        <v>829.1184727939485</v>
+        <v>654.9465271415745</v>
       </c>
       <c r="N32" t="n">
         <v>827.7546809996094</v>
@@ -37092,7 +37092,7 @@
         <v>365.1297278134252</v>
       </c>
       <c r="R32" t="n">
-        <v>63.26030461343198</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K33" t="n">
-        <v>162.2805539498544</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L33" t="n">
         <v>264.9966770610739</v>
       </c>
       <c r="M33" t="n">
-        <v>621.6266376178728</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N33" t="n">
-        <v>831.3896960873362</v>
+        <v>352.0473217437826</v>
       </c>
       <c r="O33" t="n">
         <v>299.6102837941356</v>
       </c>
       <c r="P33" t="n">
-        <v>220.9353171133174</v>
+        <v>377.2417944317025</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.2659778238654</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>113.7799670892476</v>
       </c>
       <c r="K35" t="n">
-        <v>545.923117355464</v>
+        <v>221.7777047842993</v>
       </c>
       <c r="L35" t="n">
         <v>312.4093606382718</v>
@@ -37317,16 +37317,16 @@
         <v>379.604939301116</v>
       </c>
       <c r="N35" t="n">
-        <v>416.2421549683133</v>
+        <v>390.4077565876252</v>
       </c>
       <c r="O35" t="n">
         <v>355.1810130290906</v>
       </c>
       <c r="P35" t="n">
-        <v>268.2892814000441</v>
+        <v>405.9541016919923</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.8147371535206</v>
+        <v>365.1297278134252</v>
       </c>
       <c r="R35" t="n">
         <v>2.619215220750931</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K36" t="n">
-        <v>162.2805539498544</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L36" t="n">
         <v>264.9966770610739</v>
@@ -37396,19 +37396,19 @@
         <v>328.7910151377042</v>
       </c>
       <c r="N36" t="n">
-        <v>643.2130480342502</v>
+        <v>352.0473217437826</v>
       </c>
       <c r="O36" t="n">
-        <v>643.2130480342502</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P36" t="n">
-        <v>358.3448234064575</v>
+        <v>377.2417944317028</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.2659778238654</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K38" t="n">
         <v>221.7777047842993</v>
       </c>
       <c r="L38" t="n">
-        <v>450.0741809302198</v>
+        <v>312.4093606382718</v>
       </c>
       <c r="M38" t="n">
         <v>379.604939301116</v>
@@ -37563,10 +37563,10 @@
         <v>268.2892814000441</v>
       </c>
       <c r="Q38" t="n">
-        <v>365.1297278134252</v>
+        <v>267.9815130603172</v>
       </c>
       <c r="R38" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K39" t="n">
-        <v>162.2805539498544</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L39" t="n">
-        <v>264.9966770610739</v>
+        <v>421.3031543794594</v>
       </c>
       <c r="M39" t="n">
-        <v>643.2130480342502</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N39" t="n">
-        <v>450.9625620143436</v>
+        <v>352.0473217437826</v>
       </c>
       <c r="O39" t="n">
-        <v>643.2130480342502</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P39" t="n">
         <v>220.9353171133174</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.2659778238654</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R39" t="n">
         <v>15.23795941650063</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K41" t="n">
         <v>221.7777047842993</v>
@@ -37788,22 +37788,22 @@
         <v>312.4093606382718</v>
       </c>
       <c r="M41" t="n">
-        <v>441.5527152478092</v>
+        <v>379.604939301116</v>
       </c>
       <c r="N41" t="n">
         <v>390.4077565876252</v>
       </c>
       <c r="O41" t="n">
-        <v>643.2130480342502</v>
+        <v>355.1810130290906</v>
       </c>
       <c r="P41" t="n">
         <v>268.2892814000441</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.8147371535206</v>
+        <v>267.9815130603172</v>
       </c>
       <c r="R41" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K42" t="n">
-        <v>162.2805539498544</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L42" t="n">
-        <v>264.9966770610739</v>
+        <v>421.303154379459</v>
       </c>
       <c r="M42" t="n">
-        <v>572.4289555856402</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N42" t="n">
         <v>352.0473217437826</v>
@@ -37876,13 +37876,13 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P42" t="n">
-        <v>539.3980857532545</v>
+        <v>220.9353171133174</v>
       </c>
       <c r="Q42" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K44" t="n">
-        <v>283.7254807309926</v>
+        <v>336.9444806910963</v>
       </c>
       <c r="L44" t="n">
         <v>312.4093606382718</v>
@@ -38031,7 +38031,7 @@
         <v>390.4077565876252</v>
       </c>
       <c r="O44" t="n">
-        <v>643.2130480342502</v>
+        <v>355.1810130290906</v>
       </c>
       <c r="P44" t="n">
         <v>268.2892814000441</v>
@@ -38040,7 +38040,7 @@
         <v>152.8147371535206</v>
       </c>
       <c r="R44" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>174.8496780487722</v>
       </c>
       <c r="K45" t="n">
-        <v>162.2805539498544</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L45" t="n">
         <v>264.9966770610739</v>
@@ -38110,16 +38110,16 @@
         <v>352.0473217437826</v>
       </c>
       <c r="O45" t="n">
-        <v>417.1571889016627</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P45" t="n">
-        <v>539.3980857532545</v>
+        <v>377.2417944317028</v>
       </c>
       <c r="Q45" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2201290.841031115</v>
+        <v>2221341.693280551</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7468483.559539752</v>
+        <v>7468483.559539756</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4652905.835522322</v>
+        <v>4652905.835522319</v>
       </c>
     </row>
     <row r="9">
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>246.4921073727831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424419</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>129.863150639597</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>187.131518636532</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933842</v>
       </c>
       <c r="G12" t="n">
         <v>135.4849242744168</v>
@@ -1469,7 +1469,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I12" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917303</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>192.6732950772712</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8191062330284</v>
+        <v>225.8191062330279</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>210.1807320553438</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.2052809607752</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H14" t="n">
         <v>303.8997808908692</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>267.2318194231443</v>
       </c>
       <c r="W14" t="n">
-        <v>320.7531647571229</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I15" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917303</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.3735193872588</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.789143211822</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>205.3531586940601</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>129.9555122816361</v>
+        <v>329.8487687171363</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H17" t="n">
         <v>303.8997808908692</v>
       </c>
       <c r="I17" t="n">
-        <v>76.55610382424422</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I18" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917303</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>126.3823984863293</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>199.2633256784364</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2340376195573</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>58.53460801093571</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>156.8428616151622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I21" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917303</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>137.1606233668129</v>
+        <v>137.160623366813</v>
       </c>
       <c r="T21" t="n">
         <v>192.6732950772712</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S22" t="n">
         <v>196.8617380866793</v>
       </c>
       <c r="T22" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>30.02721079224897</v>
       </c>
       <c r="X22" t="n">
-        <v>203.6850776989927</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I23" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424419</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>129.863150639597</v>
       </c>
       <c r="T23" t="n">
-        <v>207.8897316183739</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U23" t="n">
         <v>251.0677569773602</v>
@@ -2417,7 +2417,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I24" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917303</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>45.91376729445177</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>221.2879033684809</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.12331010148033</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I26" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424419</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I27" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917303</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>76.54241596186527</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>148.3735193872588</v>
       </c>
       <c r="I28" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S28" t="n">
         <v>196.8617380866793</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U28" t="n">
-        <v>245.0961031859751</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I29" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424419</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I30" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917303</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H31" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>149.7186157371235</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T31" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>77.3009245124021</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I32" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424419</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>129.863150639597</v>
+        <v>129.8631506395979</v>
       </c>
       <c r="T32" t="n">
         <v>207.8897316183737</v>
@@ -3128,7 +3128,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I33" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917303</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>203.6850776989932</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.5502297011778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>257.4357816779456</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>411.8290383841796</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>273.7826888760939</v>
       </c>
       <c r="I35" t="n">
-        <v>76.55610382424422</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933837</v>
       </c>
       <c r="G36" t="n">
         <v>135.4849242744168</v>
@@ -3365,7 +3365,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I36" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917303</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>52.98433546823254</v>
       </c>
       <c r="F37" t="n">
-        <v>100.2379734536574</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.55610382424422</v>
+        <v>34.33806022235019</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>149.9407118044195</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I39" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917303</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>192.6732950772712</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8191062330284</v>
+        <v>225.8191062330279</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.45469124586062</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4327975146757</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I40" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2340376195573</v>
+        <v>11.97312302022616</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>342.9266969639755</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7055174989918</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I41" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424419</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U41" t="n">
         <v>251.0677569773601</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I42" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917296</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>196.8617380866793</v>
@@ -3957,16 +3957,16 @@
         <v>286.2340376195573</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>11.5284122816891</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>54.52875327054863</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>411.8290383841796</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I44" t="n">
-        <v>76.55610382424422</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>43.25337399468202</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>207.8897316183737</v>
@@ -4036,10 +4036,10 @@
         <v>251.0677569773601</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>252.8216501936637</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646391</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4076,7 +4076,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I45" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917303</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.2879033684809</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>271.6234226834889</v>
+        <v>186.3356639206971</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1294.52311597327</v>
+        <v>1157.716790014201</v>
       </c>
       <c r="C11" t="n">
-        <v>925.5605990328588</v>
+        <v>788.7542730737894</v>
       </c>
       <c r="D11" t="n">
-        <v>925.5605990328588</v>
+        <v>539.7723464346145</v>
       </c>
       <c r="E11" t="n">
         <v>539.7723464346145</v>
@@ -5041,25 +5041,25 @@
         <v>51.45704384274002</v>
       </c>
       <c r="J11" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814482</v>
       </c>
       <c r="K11" t="n">
-        <v>454.8880554123277</v>
+        <v>551.0647880179046</v>
       </c>
       <c r="L11" t="n">
-        <v>764.1733224442169</v>
+        <v>860.3500550497938</v>
       </c>
       <c r="M11" t="n">
-        <v>1139.982212352322</v>
+        <v>1236.158944957899</v>
       </c>
       <c r="N11" t="n">
-        <v>1526.485891374071</v>
+        <v>1622.662623979648</v>
       </c>
       <c r="O11" t="n">
-        <v>1878.11509427287</v>
+        <v>1974.291826878448</v>
       </c>
       <c r="P11" t="n">
-        <v>2143.721482858914</v>
+        <v>2239.898215464491</v>
       </c>
       <c r="Q11" t="n">
         <v>2505.199913394205</v>
@@ -5071,22 +5071,22 @@
         <v>2441.677292501045</v>
       </c>
       <c r="T11" t="n">
-        <v>2441.677292501045</v>
+        <v>2231.687664603698</v>
       </c>
       <c r="U11" t="n">
-        <v>2188.073497574418</v>
+        <v>2231.687664603698</v>
       </c>
       <c r="V11" t="n">
-        <v>1857.010610230847</v>
+        <v>1900.624777260127</v>
       </c>
       <c r="W11" t="n">
-        <v>1667.98887423435</v>
+        <v>1547.856121990013</v>
       </c>
       <c r="X11" t="n">
-        <v>1294.52311597327</v>
+        <v>1547.856121990013</v>
       </c>
       <c r="Y11" t="n">
-        <v>1294.52311597327</v>
+        <v>1157.716790014201</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>938.3699096944692</v>
+        <v>938.3699096944697</v>
       </c>
       <c r="C12" t="n">
-        <v>763.9168804133423</v>
+        <v>763.9168804133427</v>
       </c>
       <c r="D12" t="n">
-        <v>614.982470752091</v>
+        <v>614.9824707520914</v>
       </c>
       <c r="E12" t="n">
-        <v>455.7450157466355</v>
+        <v>455.7450157466359</v>
       </c>
       <c r="F12" t="n">
-        <v>309.2104577735205</v>
+        <v>309.2104577735206</v>
       </c>
       <c r="G12" t="n">
         <v>172.3569989104732</v>
@@ -5123,19 +5123,19 @@
         <v>224.5582251110245</v>
       </c>
       <c r="K12" t="n">
-        <v>385.2159735213803</v>
+        <v>647.0365581638332</v>
       </c>
       <c r="L12" t="n">
-        <v>647.5626838118435</v>
+        <v>909.3832684542964</v>
       </c>
       <c r="M12" t="n">
-        <v>973.0657887981706</v>
+        <v>1234.886373440624</v>
       </c>
       <c r="N12" t="n">
-        <v>1609.846706352078</v>
+        <v>1583.413221966969</v>
       </c>
       <c r="O12" t="n">
-        <v>1906.460887308273</v>
+        <v>1880.027402923163</v>
       </c>
       <c r="P12" t="n">
         <v>2253.496779410548</v>
@@ -5153,7 +5153,7 @@
         <v>2239.686617951058</v>
       </c>
       <c r="U12" t="n">
-        <v>2011.586510644968</v>
+        <v>2011.586510644969</v>
       </c>
       <c r="V12" t="n">
         <v>1776.434402413226</v>
@@ -5162,10 +5162,10 @@
         <v>1522.197045685024</v>
       </c>
       <c r="X12" t="n">
-        <v>1314.345545479491</v>
+        <v>1314.345545479492</v>
       </c>
       <c r="Y12" t="n">
-        <v>1106.585246714537</v>
+        <v>1106.585246714538</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>665.3129072632861</v>
+        <v>608.024455687443</v>
       </c>
       <c r="C13" t="n">
-        <v>496.3767243353792</v>
+        <v>608.024455687443</v>
       </c>
       <c r="D13" t="n">
-        <v>346.2600849230435</v>
+        <v>457.9078162751073</v>
       </c>
       <c r="E13" t="n">
-        <v>198.3469913406504</v>
+        <v>457.9078162751073</v>
       </c>
       <c r="F13" t="n">
-        <v>51.45704384274002</v>
+        <v>311.0178687771969</v>
       </c>
       <c r="G13" t="n">
-        <v>51.45704384274002</v>
+        <v>311.0178687771969</v>
       </c>
       <c r="H13" t="n">
-        <v>51.45704384274002</v>
+        <v>161.145626971885</v>
       </c>
       <c r="I13" t="n">
         <v>51.45704384274002</v>
       </c>
       <c r="J13" t="n">
-        <v>68.09327731914516</v>
+        <v>68.09327731914517</v>
       </c>
       <c r="K13" t="n">
-        <v>225.2685560834543</v>
+        <v>225.2685560834544</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502282</v>
       </c>
       <c r="M13" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336198</v>
       </c>
       <c r="N13" t="n">
         <v>1042.673563376666</v>
       </c>
       <c r="O13" t="n">
-        <v>1285.052341775823</v>
+        <v>1285.052341775824</v>
       </c>
       <c r="P13" t="n">
-        <v>1468.928576695282</v>
+        <v>1468.928576695283</v>
       </c>
       <c r="Q13" t="n">
         <v>1512.799870543881</v>
@@ -5226,25 +5226,25 @@
         <v>1512.799870543881</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.949630052285</v>
+        <v>1313.949630052286</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.949630052285</v>
+        <v>1313.949630052286</v>
       </c>
       <c r="U13" t="n">
-        <v>1313.949630052285</v>
+        <v>1313.949630052286</v>
       </c>
       <c r="V13" t="n">
-        <v>1059.265141846398</v>
+        <v>1059.265141846399</v>
       </c>
       <c r="W13" t="n">
-        <v>846.9613720935258</v>
+        <v>769.8479718094381</v>
       </c>
       <c r="X13" t="n">
-        <v>846.9613720935258</v>
+        <v>608.024455687443</v>
       </c>
       <c r="Y13" t="n">
-        <v>846.9613720935258</v>
+        <v>608.024455687443</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>769.4124242796902</v>
+        <v>1929.455303145472</v>
       </c>
       <c r="C14" t="n">
-        <v>769.4124242796902</v>
+        <v>1929.455303145472</v>
       </c>
       <c r="D14" t="n">
-        <v>769.4124242796902</v>
+        <v>1571.189604538722</v>
       </c>
       <c r="E14" t="n">
-        <v>769.4124242796902</v>
+        <v>1185.401351940478</v>
       </c>
       <c r="F14" t="n">
-        <v>358.4265194900827</v>
+        <v>774.4154471508701</v>
       </c>
       <c r="G14" t="n">
         <v>358.4265194900827</v>
@@ -5278,25 +5278,25 @@
         <v>51.45704384274002</v>
       </c>
       <c r="J14" t="n">
-        <v>331.5048602814481</v>
+        <v>331.5048602814482</v>
       </c>
       <c r="K14" t="n">
-        <v>551.0647880179044</v>
+        <v>551.0647880179046</v>
       </c>
       <c r="L14" t="n">
-        <v>860.3500550497936</v>
+        <v>860.3500550497938</v>
       </c>
       <c r="M14" t="n">
-        <v>1236.158944957898</v>
+        <v>1236.158944957899</v>
       </c>
       <c r="N14" t="n">
-        <v>1622.662623979647</v>
+        <v>1622.662623979648</v>
       </c>
       <c r="O14" t="n">
-        <v>1974.291826878447</v>
+        <v>1974.291826878448</v>
       </c>
       <c r="P14" t="n">
-        <v>2353.91332361222</v>
+        <v>2239.898215464491</v>
       </c>
       <c r="Q14" t="n">
         <v>2505.199913394205</v>
@@ -5305,25 +5305,25 @@
         <v>2572.852192137001</v>
       </c>
       <c r="S14" t="n">
-        <v>2441.677292501045</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="T14" t="n">
-        <v>2441.677292501045</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U14" t="n">
-        <v>2188.073497574418</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="V14" t="n">
-        <v>1857.010610230847</v>
+        <v>2302.921061406552</v>
       </c>
       <c r="W14" t="n">
-        <v>1533.017514516582</v>
+        <v>2302.921061406552</v>
       </c>
       <c r="X14" t="n">
-        <v>1159.551756255502</v>
+        <v>1929.455303145472</v>
       </c>
       <c r="Y14" t="n">
-        <v>769.4124242796902</v>
+        <v>1929.455303145472</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>455.7450157466355</v>
       </c>
       <c r="F15" t="n">
-        <v>309.2104577735206</v>
+        <v>309.2104577735205</v>
       </c>
       <c r="G15" t="n">
         <v>172.3569989104732</v>
@@ -5360,25 +5360,25 @@
         <v>224.5582251110245</v>
       </c>
       <c r="K15" t="n">
-        <v>647.0365581638331</v>
+        <v>647.0365581638332</v>
       </c>
       <c r="L15" t="n">
-        <v>1064.126680999498</v>
+        <v>909.3832684542964</v>
       </c>
       <c r="M15" t="n">
-        <v>1389.629785985825</v>
+        <v>1234.886373440624</v>
       </c>
       <c r="N15" t="n">
-        <v>1738.15663451217</v>
+        <v>1583.413221966969</v>
       </c>
       <c r="O15" t="n">
-        <v>2034.770815468364</v>
+        <v>1880.027402923163</v>
       </c>
       <c r="P15" t="n">
-        <v>2253.496779410548</v>
+        <v>2268.582359232884</v>
       </c>
       <c r="Q15" t="n">
-        <v>2557.766612314666</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="R15" t="n">
         <v>2572.852192137001</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.2990859521088</v>
+        <v>924.873732197743</v>
       </c>
       <c r="C16" t="n">
-        <v>814.362903024202</v>
+        <v>755.9375492698362</v>
       </c>
       <c r="D16" t="n">
-        <v>664.2462636118662</v>
+        <v>605.8209098575004</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3331700294731</v>
+        <v>457.9078162751073</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4432225315627</v>
+        <v>311.0178687771969</v>
       </c>
       <c r="G16" t="n">
-        <v>201.329285648052</v>
+        <v>311.0178687771969</v>
       </c>
       <c r="H16" t="n">
-        <v>51.45704384274002</v>
+        <v>161.145626971885</v>
       </c>
       <c r="I16" t="n">
         <v>51.45704384274002</v>
       </c>
       <c r="J16" t="n">
-        <v>68.09327731914516</v>
+        <v>68.09327731914517</v>
       </c>
       <c r="K16" t="n">
-        <v>225.2685560834543</v>
+        <v>225.2685560834544</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502282</v>
       </c>
       <c r="M16" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336198</v>
       </c>
       <c r="N16" t="n">
         <v>1042.673563376666</v>
       </c>
       <c r="O16" t="n">
-        <v>1285.052341775823</v>
+        <v>1285.052341775824</v>
       </c>
       <c r="P16" t="n">
-        <v>1468.928576695282</v>
+        <v>1468.928576695283</v>
       </c>
       <c r="Q16" t="n">
         <v>1512.799870543881</v>
@@ -5463,25 +5463,25 @@
         <v>1512.799870543881</v>
       </c>
       <c r="S16" t="n">
-        <v>1385.740129925879</v>
+        <v>1313.949630052286</v>
       </c>
       <c r="T16" t="n">
-        <v>1385.740129925879</v>
+        <v>1313.949630052286</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.740129925879</v>
+        <v>1106.522197027983</v>
       </c>
       <c r="V16" t="n">
-        <v>1385.740129925879</v>
+        <v>1106.522197027983</v>
       </c>
       <c r="W16" t="n">
-        <v>1385.740129925879</v>
+        <v>1106.522197027983</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.740129925879</v>
+        <v>1106.522197027983</v>
       </c>
       <c r="Y16" t="n">
-        <v>1164.947550782349</v>
+        <v>1106.522197027983</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1162.984132839512</v>
+        <v>1518.469398355865</v>
       </c>
       <c r="C17" t="n">
-        <v>794.0216158991001</v>
+        <v>1518.469398355865</v>
       </c>
       <c r="D17" t="n">
-        <v>435.7559172923496</v>
+        <v>1160.203699749114</v>
       </c>
       <c r="E17" t="n">
-        <v>435.7559172923496</v>
+        <v>774.4154471508701</v>
       </c>
       <c r="F17" t="n">
-        <v>435.7559172923496</v>
+        <v>774.4154471508701</v>
       </c>
       <c r="G17" t="n">
-        <v>435.7559172923496</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="H17" t="n">
-        <v>128.7864416450069</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I17" t="n">
         <v>51.45704384274002</v>
       </c>
       <c r="J17" t="n">
-        <v>331.5048602814481</v>
+        <v>331.5048602814482</v>
       </c>
       <c r="K17" t="n">
-        <v>551.0647880179044</v>
+        <v>551.0647880179046</v>
       </c>
       <c r="L17" t="n">
-        <v>860.3500550497936</v>
+        <v>860.3500550497938</v>
       </c>
       <c r="M17" t="n">
-        <v>1236.158944957898</v>
+        <v>1236.158944957899</v>
       </c>
       <c r="N17" t="n">
-        <v>1622.662623979647</v>
+        <v>1622.662623979648</v>
       </c>
       <c r="O17" t="n">
-        <v>1974.291826878447</v>
+        <v>1974.291826878448</v>
       </c>
       <c r="P17" t="n">
         <v>2239.898215464491</v>
       </c>
       <c r="Q17" t="n">
-        <v>2570.259169068458</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R17" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S17" t="n">
-        <v>2441.677292501045</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="T17" t="n">
-        <v>2231.687664603698</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U17" t="n">
-        <v>1978.083869677071</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="V17" t="n">
-        <v>1647.020982333501</v>
+        <v>2241.78930479343</v>
       </c>
       <c r="W17" t="n">
-        <v>1294.252327063387</v>
+        <v>2241.78930479343</v>
       </c>
       <c r="X17" t="n">
-        <v>1294.252327063387</v>
+        <v>2241.78930479343</v>
       </c>
       <c r="Y17" t="n">
-        <v>1294.252327063387</v>
+        <v>1851.649972817619</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>938.3699096944692</v>
+        <v>938.3699096944694</v>
       </c>
       <c r="C18" t="n">
-        <v>763.9168804133423</v>
+        <v>763.9168804133424</v>
       </c>
       <c r="D18" t="n">
-        <v>614.9824707520909</v>
+        <v>614.9824707520911</v>
       </c>
       <c r="E18" t="n">
-        <v>455.7450157466353</v>
+        <v>455.7450157466357</v>
       </c>
       <c r="F18" t="n">
-        <v>309.2104577735204</v>
+        <v>309.2104577735206</v>
       </c>
       <c r="G18" t="n">
         <v>172.3569989104732</v>
       </c>
       <c r="H18" t="n">
-        <v>77.11927188230875</v>
+        <v>77.11927188230874</v>
       </c>
       <c r="I18" t="n">
         <v>51.45704384274002</v>
@@ -5597,25 +5597,25 @@
         <v>224.5582251110245</v>
       </c>
       <c r="K18" t="n">
-        <v>647.0365581638331</v>
+        <v>647.0365581638332</v>
       </c>
       <c r="L18" t="n">
-        <v>1064.126680999498</v>
+        <v>909.3832684542964</v>
       </c>
       <c r="M18" t="n">
-        <v>1389.629785985825</v>
+        <v>1234.886373440624</v>
       </c>
       <c r="N18" t="n">
-        <v>1738.15663451217</v>
+        <v>1583.413221966969</v>
       </c>
       <c r="O18" t="n">
-        <v>2034.770815468364</v>
+        <v>1880.027402923163</v>
       </c>
       <c r="P18" t="n">
         <v>2253.496779410548</v>
       </c>
       <c r="Q18" t="n">
-        <v>2557.766612314666</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R18" t="n">
         <v>2572.852192137001</v>
@@ -5624,7 +5624,7 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T18" t="n">
-        <v>2239.686617951058</v>
+        <v>2239.686617951057</v>
       </c>
       <c r="U18" t="n">
         <v>2011.586510644968</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.45704384274002</v>
+        <v>497.9244569459885</v>
       </c>
       <c r="C19" t="n">
-        <v>51.45704384274002</v>
+        <v>328.9882740180816</v>
       </c>
       <c r="D19" t="n">
-        <v>51.45704384274002</v>
+        <v>201.329285648052</v>
       </c>
       <c r="E19" t="n">
-        <v>51.45704384274002</v>
+        <v>201.329285648052</v>
       </c>
       <c r="F19" t="n">
-        <v>51.45704384274002</v>
+        <v>201.329285648052</v>
       </c>
       <c r="G19" t="n">
-        <v>51.45704384274002</v>
+        <v>201.329285648052</v>
       </c>
       <c r="H19" t="n">
         <v>51.45704384274002</v>
@@ -5673,25 +5673,25 @@
         <v>51.45704384274002</v>
       </c>
       <c r="J19" t="n">
-        <v>68.09327731914516</v>
+        <v>68.09327731914517</v>
       </c>
       <c r="K19" t="n">
-        <v>225.2685560834543</v>
+        <v>225.2685560834544</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502282</v>
       </c>
       <c r="M19" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336198</v>
       </c>
       <c r="N19" t="n">
         <v>1042.673563376666</v>
       </c>
       <c r="O19" t="n">
-        <v>1285.052341775823</v>
+        <v>1285.052341775824</v>
       </c>
       <c r="P19" t="n">
-        <v>1468.928576695282</v>
+        <v>1468.928576695283</v>
       </c>
       <c r="Q19" t="n">
         <v>1512.799870543881</v>
@@ -5700,25 +5700,25 @@
         <v>1512.799870543881</v>
       </c>
       <c r="S19" t="n">
-        <v>1313.949630052285</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="T19" t="n">
-        <v>1112.67354350841</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="U19" t="n">
-        <v>823.5482529836048</v>
+        <v>1223.674580019076</v>
       </c>
       <c r="V19" t="n">
-        <v>568.863764777718</v>
+        <v>968.9900918131888</v>
       </c>
       <c r="W19" t="n">
-        <v>279.4465947407573</v>
+        <v>679.5729217762282</v>
       </c>
       <c r="X19" t="n">
-        <v>51.45704384274002</v>
+        <v>679.5729217762282</v>
       </c>
       <c r="Y19" t="n">
-        <v>51.45704384274002</v>
+        <v>679.5729217762282</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1264.220128891379</v>
+        <v>1681.611694175843</v>
       </c>
       <c r="C20" t="n">
-        <v>1264.220128891379</v>
+        <v>1681.611694175843</v>
       </c>
       <c r="D20" t="n">
-        <v>1264.220128891379</v>
+        <v>1323.345995569092</v>
       </c>
       <c r="E20" t="n">
-        <v>878.431876293135</v>
+        <v>937.5577429708478</v>
       </c>
       <c r="F20" t="n">
-        <v>467.4459715035275</v>
+        <v>526.5718381812403</v>
       </c>
       <c r="G20" t="n">
-        <v>51.45704384274002</v>
+        <v>110.5829105204529</v>
       </c>
       <c r="H20" t="n">
-        <v>51.45704384274002</v>
+        <v>110.5829105204529</v>
       </c>
       <c r="I20" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J20" t="n">
-        <v>331.5048602814481</v>
+        <v>331.5048602814482</v>
       </c>
       <c r="K20" t="n">
-        <v>551.0647880179044</v>
+        <v>551.0647880179046</v>
       </c>
       <c r="L20" t="n">
-        <v>860.3500550497936</v>
+        <v>860.3500550497938</v>
       </c>
       <c r="M20" t="n">
-        <v>1236.158944957898</v>
+        <v>1236.158944957899</v>
       </c>
       <c r="N20" t="n">
-        <v>1622.662623979647</v>
+        <v>1622.662623979648</v>
       </c>
       <c r="O20" t="n">
-        <v>1974.291826878447</v>
+        <v>1974.291826878448</v>
       </c>
       <c r="P20" t="n">
         <v>2239.898215464491</v>
       </c>
       <c r="Q20" t="n">
-        <v>2505.199913394205</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R20" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S20" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="T20" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="U20" t="n">
-        <v>2414.425059192393</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="V20" t="n">
-        <v>2414.425059192393</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="W20" t="n">
-        <v>2414.425059192393</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="X20" t="n">
-        <v>2040.959300931313</v>
+        <v>2068.211534239964</v>
       </c>
       <c r="Y20" t="n">
-        <v>1650.819968955501</v>
+        <v>2068.211534239964</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>938.3699096944694</v>
+        <v>938.3699096944688</v>
       </c>
       <c r="C21" t="n">
-        <v>763.9168804133424</v>
+        <v>763.9168804133418</v>
       </c>
       <c r="D21" t="n">
-        <v>614.9824707520911</v>
+        <v>614.9824707520906</v>
       </c>
       <c r="E21" t="n">
-        <v>455.7450157466357</v>
+        <v>455.7450157466351</v>
       </c>
       <c r="F21" t="n">
-        <v>309.2104577735206</v>
+        <v>309.2104577735201</v>
       </c>
       <c r="G21" t="n">
-        <v>172.3569989104732</v>
+        <v>172.3569989104731</v>
       </c>
       <c r="H21" t="n">
-        <v>77.11927188230874</v>
+        <v>77.11927188230857</v>
       </c>
       <c r="I21" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J21" t="n">
         <v>224.5582251110245</v>
       </c>
       <c r="K21" t="n">
-        <v>647.0365581638331</v>
+        <v>647.0365581638332</v>
       </c>
       <c r="L21" t="n">
-        <v>1064.126680999498</v>
+        <v>909.3832684542964</v>
       </c>
       <c r="M21" t="n">
-        <v>1389.629785985825</v>
+        <v>1234.886373440624</v>
       </c>
       <c r="N21" t="n">
-        <v>1738.15663451217</v>
+        <v>1583.413221966969</v>
       </c>
       <c r="O21" t="n">
-        <v>2034.770815468364</v>
+        <v>1880.027402923163</v>
       </c>
       <c r="P21" t="n">
         <v>2253.496779410548</v>
       </c>
       <c r="Q21" t="n">
-        <v>2557.766612314666</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R21" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.306107928099</v>
+        <v>2434.306107928098</v>
       </c>
       <c r="T21" t="n">
-        <v>2239.686617951058</v>
+        <v>2239.686617951057</v>
       </c>
       <c r="U21" t="n">
-        <v>2011.586510644969</v>
+        <v>2011.586510644968</v>
       </c>
       <c r="V21" t="n">
-        <v>1776.434402413226</v>
+        <v>1776.434402413225</v>
       </c>
       <c r="W21" t="n">
         <v>1522.197045685024</v>
       </c>
       <c r="X21" t="n">
-        <v>1314.345545479492</v>
+        <v>1314.345545479491</v>
       </c>
       <c r="Y21" t="n">
-        <v>1106.585246714538</v>
+        <v>1106.585246714537</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51.45704384274002</v>
+        <v>518.178562158352</v>
       </c>
       <c r="C22" t="n">
-        <v>51.45704384274002</v>
+        <v>349.2423792304451</v>
       </c>
       <c r="D22" t="n">
-        <v>51.45704384274002</v>
+        <v>349.2423792304451</v>
       </c>
       <c r="E22" t="n">
-        <v>51.45704384274002</v>
+        <v>201.329285648052</v>
       </c>
       <c r="F22" t="n">
-        <v>51.45704384274002</v>
+        <v>201.329285648052</v>
       </c>
       <c r="G22" t="n">
-        <v>51.45704384274002</v>
+        <v>201.329285648052</v>
       </c>
       <c r="H22" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I22" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J22" t="n">
         <v>68.09327731914516</v>
       </c>
       <c r="K22" t="n">
-        <v>225.2685560834543</v>
+        <v>225.2685560834544</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502282</v>
       </c>
       <c r="M22" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336198</v>
       </c>
       <c r="N22" t="n">
         <v>1042.673563376666</v>
       </c>
       <c r="O22" t="n">
-        <v>1285.052341775823</v>
+        <v>1285.052341775824</v>
       </c>
       <c r="P22" t="n">
-        <v>1468.928576695282</v>
+        <v>1468.928576695283</v>
       </c>
       <c r="Q22" t="n">
         <v>1512.799870543881</v>
       </c>
       <c r="R22" t="n">
-        <v>1512.799870543881</v>
+        <v>1404.484850781371</v>
       </c>
       <c r="S22" t="n">
-        <v>1313.949630052285</v>
+        <v>1205.634610289775</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.426495336648</v>
+        <v>1205.634610289775</v>
       </c>
       <c r="U22" t="n">
-        <v>801.3012048118427</v>
+        <v>1205.634610289775</v>
       </c>
       <c r="V22" t="n">
-        <v>546.6167166059558</v>
+        <v>950.9501220838885</v>
       </c>
       <c r="W22" t="n">
-        <v>257.1995465689952</v>
+        <v>920.6196061321218</v>
       </c>
       <c r="X22" t="n">
-        <v>51.45704384274002</v>
+        <v>920.6196061321218</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.45704384274002</v>
+        <v>699.8270269885917</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2421.29211219684</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.329595256428</v>
+        <v>2052.329595256429</v>
       </c>
       <c r="D23" t="n">
         <v>1694.063896649678</v>
@@ -5980,19 +5980,19 @@
         <v>897.2897392618263</v>
       </c>
       <c r="G23" t="n">
-        <v>481.3008116010389</v>
+        <v>481.3008116010388</v>
       </c>
       <c r="H23" t="n">
         <v>174.3313359536963</v>
       </c>
       <c r="I23" t="n">
-        <v>97.00193815142937</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J23" t="n">
-        <v>377.0497545901375</v>
+        <v>377.0497545901376</v>
       </c>
       <c r="K23" t="n">
-        <v>917.513640772047</v>
+        <v>917.5136407720471</v>
       </c>
       <c r="L23" t="n">
         <v>1640.283510208882</v>
@@ -6001,37 +6001,37 @@
         <v>2461.110798274891</v>
       </c>
       <c r="N23" t="n">
-        <v>3280.587932464504</v>
+        <v>3280.587932464505</v>
       </c>
       <c r="O23" t="n">
-        <v>3836.77908861757</v>
+        <v>3836.779088617571</v>
       </c>
       <c r="P23" t="n">
-        <v>4420.966198293381</v>
+        <v>4420.966198293382</v>
       </c>
       <c r="Q23" t="n">
-        <v>4782.444628828673</v>
+        <v>4782.444628828674</v>
       </c>
       <c r="R23" t="n">
-        <v>4850.096907571468</v>
+        <v>4850.096907571469</v>
       </c>
       <c r="S23" t="n">
-        <v>4718.922007935512</v>
+        <v>4718.922007935513</v>
       </c>
       <c r="T23" t="n">
-        <v>4508.932380038164</v>
+        <v>4508.932380038165</v>
       </c>
       <c r="U23" t="n">
-        <v>4255.328585111538</v>
+        <v>4255.328585111539</v>
       </c>
       <c r="V23" t="n">
         <v>3924.265697767968</v>
       </c>
       <c r="W23" t="n">
-        <v>3571.497042497853</v>
+        <v>3571.497042497854</v>
       </c>
       <c r="X23" t="n">
-        <v>3198.031284236773</v>
+        <v>3198.031284236774</v>
       </c>
       <c r="Y23" t="n">
         <v>2807.891952260962</v>
@@ -6065,13 +6065,13 @@
         <v>122.6641661909981</v>
       </c>
       <c r="I24" t="n">
-        <v>97.00193815142937</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J24" t="n">
         <v>270.1031194197138</v>
       </c>
       <c r="K24" t="n">
-        <v>692.5814524725224</v>
+        <v>692.5814524725225</v>
       </c>
       <c r="L24" t="n">
         <v>1109.671575308187</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.3794808730978</v>
+        <v>374.8044581640851</v>
       </c>
       <c r="C25" t="n">
-        <v>143.3794808730978</v>
+        <v>374.8044581640851</v>
       </c>
       <c r="D25" t="n">
-        <v>143.3794808730978</v>
+        <v>374.8044581640851</v>
       </c>
       <c r="E25" t="n">
-        <v>143.3794808730978</v>
+        <v>374.8044581640851</v>
       </c>
       <c r="F25" t="n">
-        <v>143.3794808730978</v>
+        <v>374.8044581640851</v>
       </c>
       <c r="G25" t="n">
-        <v>97.00193815142937</v>
+        <v>206.6905212805743</v>
       </c>
       <c r="H25" t="n">
-        <v>97.00193815142937</v>
+        <v>206.6905212805743</v>
       </c>
       <c r="I25" t="n">
-        <v>97.00193815142937</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J25" t="n">
         <v>113.6381716278345</v>
@@ -6153,13 +6153,13 @@
         <v>270.8134503921437</v>
       </c>
       <c r="L25" t="n">
-        <v>527.4701282589174</v>
+        <v>527.4701282589176</v>
       </c>
       <c r="M25" t="n">
-        <v>808.467732242309</v>
+        <v>808.4677322423092</v>
       </c>
       <c r="N25" t="n">
-        <v>1088.218457685355</v>
+        <v>1088.218457685356</v>
       </c>
       <c r="O25" t="n">
         <v>1330.597236084513</v>
@@ -6168,31 +6168,31 @@
         <v>1514.473471003972</v>
       </c>
       <c r="Q25" t="n">
-        <v>1558.34476485257</v>
+        <v>1558.344764852571</v>
       </c>
       <c r="R25" t="n">
-        <v>1558.34476485257</v>
+        <v>1558.344764852571</v>
       </c>
       <c r="S25" t="n">
         <v>1359.494524360975</v>
       </c>
       <c r="T25" t="n">
-        <v>1135.971389645337</v>
+        <v>1135.971389645338</v>
       </c>
       <c r="U25" t="n">
-        <v>846.8460991205321</v>
+        <v>1135.971389645338</v>
       </c>
       <c r="V25" t="n">
-        <v>592.1616109146453</v>
+        <v>881.2869014394511</v>
       </c>
       <c r="W25" t="n">
-        <v>592.1616109146453</v>
+        <v>823.5865882056326</v>
       </c>
       <c r="X25" t="n">
-        <v>364.1720600166279</v>
+        <v>595.5970373076152</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.3794808730978</v>
+        <v>374.8044581640851</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>481.3008116010387</v>
       </c>
       <c r="H26" t="n">
-        <v>174.3313359536963</v>
+        <v>174.3313359536962</v>
       </c>
       <c r="I26" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J26" t="n">
-        <v>377.0497545901375</v>
+        <v>209.6441055697845</v>
       </c>
       <c r="K26" t="n">
-        <v>917.513640772047</v>
+        <v>745.0834145761941</v>
       </c>
       <c r="L26" t="n">
-        <v>1640.283510208882</v>
+        <v>1467.853284013029</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.110798274891</v>
+        <v>2288.680572079038</v>
       </c>
       <c r="N26" t="n">
-        <v>3280.587932464504</v>
+        <v>3108.157706268652</v>
       </c>
       <c r="O26" t="n">
-        <v>3836.779088617572</v>
+        <v>3836.77908861757</v>
       </c>
       <c r="P26" t="n">
-        <v>4420.966198293383</v>
+        <v>4420.966198293381</v>
       </c>
       <c r="Q26" t="n">
-        <v>4782.444628828674</v>
+        <v>4782.444628828673</v>
       </c>
       <c r="R26" t="n">
-        <v>4850.096907571469</v>
+        <v>4850.096907571468</v>
       </c>
       <c r="S26" t="n">
         <v>4718.922007935512</v>
@@ -6302,25 +6302,25 @@
         <v>122.6641661909981</v>
       </c>
       <c r="I27" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J27" t="n">
         <v>270.1031194197138</v>
       </c>
       <c r="K27" t="n">
-        <v>692.5814524725224</v>
+        <v>692.5814524725225</v>
       </c>
       <c r="L27" t="n">
-        <v>1109.671575308187</v>
+        <v>954.9281627629857</v>
       </c>
       <c r="M27" t="n">
-        <v>1435.174680294514</v>
+        <v>1280.431267749313</v>
       </c>
       <c r="N27" t="n">
-        <v>1783.701528820859</v>
+        <v>1628.958116275658</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.315709777053</v>
+        <v>1925.572297231852</v>
       </c>
       <c r="P27" t="n">
         <v>2299.041673719237</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.5055329240392</v>
+        <v>324.1897516353931</v>
       </c>
       <c r="C28" t="n">
-        <v>653.5693499961324</v>
+        <v>324.1897516353931</v>
       </c>
       <c r="D28" t="n">
-        <v>503.4527105837966</v>
+        <v>324.1897516353931</v>
       </c>
       <c r="E28" t="n">
-        <v>503.4527105837966</v>
+        <v>324.1897516353931</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5627630858863</v>
+        <v>246.8741799567413</v>
       </c>
       <c r="G28" t="n">
-        <v>356.5627630858863</v>
+        <v>246.8741799567413</v>
       </c>
       <c r="H28" t="n">
-        <v>206.6905212805743</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="I28" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J28" t="n">
         <v>113.6381716278345</v>
@@ -6390,13 +6390,13 @@
         <v>270.8134503921437</v>
       </c>
       <c r="L28" t="n">
-        <v>527.4701282589174</v>
+        <v>527.4701282589176</v>
       </c>
       <c r="M28" t="n">
-        <v>808.467732242309</v>
+        <v>808.4677322423092</v>
       </c>
       <c r="N28" t="n">
-        <v>1088.218457685355</v>
+        <v>1088.218457685356</v>
       </c>
       <c r="O28" t="n">
         <v>1330.597236084513</v>
@@ -6405,31 +6405,31 @@
         <v>1514.473471003972</v>
       </c>
       <c r="Q28" t="n">
-        <v>1558.34476485257</v>
+        <v>1558.344764852571</v>
       </c>
       <c r="R28" t="n">
-        <v>1558.34476485257</v>
+        <v>1450.02974509006</v>
       </c>
       <c r="S28" t="n">
-        <v>1359.494524360975</v>
+        <v>1251.179504598465</v>
       </c>
       <c r="T28" t="n">
-        <v>1359.494524360975</v>
+        <v>1027.656369882827</v>
       </c>
       <c r="U28" t="n">
-        <v>1111.922702961</v>
+        <v>1027.656369882827</v>
       </c>
       <c r="V28" t="n">
-        <v>1111.922702961</v>
+        <v>772.9718816769406</v>
       </c>
       <c r="W28" t="n">
-        <v>822.5055329240392</v>
+        <v>772.9718816769406</v>
       </c>
       <c r="X28" t="n">
-        <v>822.5055329240392</v>
+        <v>544.9823307789233</v>
       </c>
       <c r="Y28" t="n">
-        <v>822.5055329240392</v>
+        <v>324.1897516353931</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>2052.329595256429</v>
       </c>
       <c r="D29" t="n">
-        <v>1694.063896649679</v>
+        <v>1694.063896649678</v>
       </c>
       <c r="E29" t="n">
         <v>1308.275644051434</v>
       </c>
       <c r="F29" t="n">
-        <v>897.289739261827</v>
+        <v>897.2897392618263</v>
       </c>
       <c r="G29" t="n">
-        <v>481.3008116010396</v>
+        <v>481.3008116010388</v>
       </c>
       <c r="H29" t="n">
-        <v>174.3313359536969</v>
+        <v>174.3313359536963</v>
       </c>
       <c r="I29" t="n">
         <v>97.00193815142939</v>
       </c>
       <c r="J29" t="n">
-        <v>269.6787840685395</v>
+        <v>377.0497545901376</v>
       </c>
       <c r="K29" t="n">
-        <v>810.1426702504489</v>
+        <v>745.083414576195</v>
       </c>
       <c r="L29" t="n">
-        <v>1532.912539687284</v>
+        <v>1467.85328401303</v>
       </c>
       <c r="M29" t="n">
-        <v>2353.739827753293</v>
+        <v>2288.680572079039</v>
       </c>
       <c r="N29" t="n">
-        <v>3173.216961942906</v>
+        <v>3108.157706268653</v>
       </c>
       <c r="O29" t="n">
-        <v>3901.838344291824</v>
+        <v>3836.779088617571</v>
       </c>
       <c r="P29" t="n">
-        <v>4486.025453967635</v>
+        <v>4420.966198293382</v>
       </c>
       <c r="Q29" t="n">
-        <v>4847.503884502926</v>
+        <v>4782.444628828674</v>
       </c>
       <c r="R29" t="n">
         <v>4850.096907571469</v>
@@ -6545,16 +6545,16 @@
         <v>270.1031194197138</v>
       </c>
       <c r="K30" t="n">
-        <v>692.5814524725224</v>
+        <v>692.5814524725225</v>
       </c>
       <c r="L30" t="n">
-        <v>954.9281627629855</v>
+        <v>954.9281627629857</v>
       </c>
       <c r="M30" t="n">
         <v>1280.431267749313</v>
       </c>
       <c r="N30" t="n">
-        <v>1628.958116275657</v>
+        <v>1628.958116275658</v>
       </c>
       <c r="O30" t="n">
         <v>1925.572297231852</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>712.8169497948943</v>
+        <v>878.9717384554863</v>
       </c>
       <c r="C31" t="n">
-        <v>543.8807668669874</v>
+        <v>710.0355555275794</v>
       </c>
       <c r="D31" t="n">
-        <v>393.7641274546517</v>
+        <v>559.9189161152436</v>
       </c>
       <c r="E31" t="n">
-        <v>393.7641274546517</v>
+        <v>412.0058225328505</v>
       </c>
       <c r="F31" t="n">
-        <v>246.8741799567413</v>
+        <v>265.1158750349401</v>
       </c>
       <c r="G31" t="n">
-        <v>246.8741799567413</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="H31" t="n">
         <v>97.00193815142939</v>
@@ -6627,13 +6627,13 @@
         <v>270.8134503921437</v>
       </c>
       <c r="L31" t="n">
-        <v>527.4701282589174</v>
+        <v>527.4701282589176</v>
       </c>
       <c r="M31" t="n">
-        <v>808.467732242309</v>
+        <v>808.4677322423092</v>
       </c>
       <c r="N31" t="n">
-        <v>1088.218457685355</v>
+        <v>1088.218457685356</v>
       </c>
       <c r="O31" t="n">
         <v>1330.597236084513</v>
@@ -6642,31 +6642,31 @@
         <v>1514.473471003972</v>
       </c>
       <c r="Q31" t="n">
-        <v>1558.34476485257</v>
+        <v>1558.344764852571</v>
       </c>
       <c r="R31" t="n">
-        <v>1558.34476485257</v>
+        <v>1558.344764852571</v>
       </c>
       <c r="S31" t="n">
-        <v>1407.113839865577</v>
+        <v>1359.494524360975</v>
       </c>
       <c r="T31" t="n">
-        <v>1183.590705149939</v>
+        <v>1359.494524360975</v>
       </c>
       <c r="U31" t="n">
-        <v>894.465414625134</v>
+        <v>1359.494524360975</v>
       </c>
       <c r="V31" t="n">
-        <v>894.465414625134</v>
+        <v>1281.412782429256</v>
       </c>
       <c r="W31" t="n">
-        <v>894.465414625134</v>
+        <v>1281.412782429256</v>
       </c>
       <c r="X31" t="n">
-        <v>894.465414625134</v>
+        <v>1281.412782429256</v>
       </c>
       <c r="Y31" t="n">
-        <v>894.465414625134</v>
+        <v>1060.620203285726</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2421.29211219684</v>
+        <v>2421.292112196839</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.329595256429</v>
+        <v>2052.329595256428</v>
       </c>
       <c r="D32" t="n">
         <v>1694.063896649678</v>
@@ -6688,10 +6688,10 @@
         <v>1308.275644051434</v>
       </c>
       <c r="F32" t="n">
-        <v>897.2897392618265</v>
+        <v>897.2897392618263</v>
       </c>
       <c r="G32" t="n">
-        <v>481.3008116010389</v>
+        <v>481.3008116010388</v>
       </c>
       <c r="H32" t="n">
         <v>174.3313359536963</v>
@@ -6700,25 +6700,25 @@
         <v>97.00193815142939</v>
       </c>
       <c r="J32" t="n">
-        <v>377.0497545901375</v>
+        <v>377.0497545901376</v>
       </c>
       <c r="K32" t="n">
-        <v>917.513640772047</v>
+        <v>917.5136407720471</v>
       </c>
       <c r="L32" t="n">
         <v>1640.283510208882</v>
       </c>
       <c r="M32" t="n">
-        <v>2288.680572079041</v>
+        <v>2288.680572079039</v>
       </c>
       <c r="N32" t="n">
-        <v>3108.157706268654</v>
+        <v>3108.157706268653</v>
       </c>
       <c r="O32" t="n">
-        <v>3836.779088617572</v>
+        <v>3836.779088617571</v>
       </c>
       <c r="P32" t="n">
-        <v>4420.966198293383</v>
+        <v>4420.966198293382</v>
       </c>
       <c r="Q32" t="n">
         <v>4782.444628828674</v>
@@ -6727,25 +6727,25 @@
         <v>4850.096907571469</v>
       </c>
       <c r="S32" t="n">
-        <v>4718.922007935513</v>
+        <v>4718.922007935512</v>
       </c>
       <c r="T32" t="n">
-        <v>4508.932380038165</v>
+        <v>4508.932380038164</v>
       </c>
       <c r="U32" t="n">
-        <v>4255.328585111539</v>
+        <v>4255.328585111538</v>
       </c>
       <c r="V32" t="n">
-        <v>3924.265697767968</v>
+        <v>3924.265697767967</v>
       </c>
       <c r="W32" t="n">
-        <v>3571.497042497854</v>
+        <v>3571.497042497853</v>
       </c>
       <c r="X32" t="n">
-        <v>3198.031284236774</v>
+        <v>3198.031284236773</v>
       </c>
       <c r="Y32" t="n">
-        <v>2807.891952260962</v>
+        <v>2807.891952260961</v>
       </c>
     </row>
     <row r="33">
@@ -6782,16 +6782,16 @@
         <v>270.1031194197138</v>
       </c>
       <c r="K33" t="n">
-        <v>692.5814524725224</v>
+        <v>692.5814524725225</v>
       </c>
       <c r="L33" t="n">
-        <v>954.9281627629855</v>
+        <v>954.9281627629857</v>
       </c>
       <c r="M33" t="n">
         <v>1280.431267749313</v>
       </c>
       <c r="N33" t="n">
-        <v>1628.958116275657</v>
+        <v>1628.958116275658</v>
       </c>
       <c r="O33" t="n">
         <v>1925.572297231852</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1138.532563389943</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="C34" t="n">
-        <v>969.5963804620363</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="D34" t="n">
-        <v>819.4797410497006</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="E34" t="n">
-        <v>671.5666474673075</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="F34" t="n">
-        <v>524.6766999693971</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="G34" t="n">
-        <v>356.5627630858863</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="H34" t="n">
-        <v>206.6905212805743</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="I34" t="n">
         <v>97.00193815142939</v>
@@ -6864,13 +6864,13 @@
         <v>270.8134503921437</v>
       </c>
       <c r="L34" t="n">
-        <v>527.4701282589174</v>
+        <v>527.4701282589176</v>
       </c>
       <c r="M34" t="n">
-        <v>808.467732242309</v>
+        <v>808.4677322423092</v>
       </c>
       <c r="N34" t="n">
-        <v>1088.218457685355</v>
+        <v>1088.218457685356</v>
       </c>
       <c r="O34" t="n">
         <v>1330.597236084513</v>
@@ -6879,31 +6879,31 @@
         <v>1514.473471003972</v>
       </c>
       <c r="Q34" t="n">
-        <v>1558.34476485257</v>
+        <v>1558.344764852571</v>
       </c>
       <c r="R34" t="n">
-        <v>1450.02974509006</v>
+        <v>1558.344764852571</v>
       </c>
       <c r="S34" t="n">
-        <v>1450.02974509006</v>
+        <v>1359.494524360975</v>
       </c>
       <c r="T34" t="n">
-        <v>1450.02974509006</v>
+        <v>1135.971389645338</v>
       </c>
       <c r="U34" t="n">
-        <v>1450.02974509006</v>
+        <v>846.8460991205326</v>
       </c>
       <c r="V34" t="n">
-        <v>1450.02974509006</v>
+        <v>592.1616109146457</v>
       </c>
       <c r="W34" t="n">
-        <v>1450.02974509006</v>
+        <v>302.7444408776851</v>
       </c>
       <c r="X34" t="n">
-        <v>1450.02974509006</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="Y34" t="n">
-        <v>1320.181028220183</v>
+        <v>97.00193815142939</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1601.585669802682</v>
+        <v>1857.010610230847</v>
       </c>
       <c r="C35" t="n">
-        <v>1601.585669802682</v>
+        <v>1488.048093290435</v>
       </c>
       <c r="D35" t="n">
-        <v>1341.549526693646</v>
+        <v>1129.782394683685</v>
       </c>
       <c r="E35" t="n">
-        <v>955.7612740954019</v>
+        <v>743.9941420854404</v>
       </c>
       <c r="F35" t="n">
-        <v>544.7753693057944</v>
+        <v>743.9941420854404</v>
       </c>
       <c r="G35" t="n">
-        <v>128.7864416450069</v>
+        <v>328.005214424653</v>
       </c>
       <c r="H35" t="n">
-        <v>128.7864416450069</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I35" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J35" t="n">
-        <v>164.0992112610951</v>
+        <v>164.0992112610952</v>
       </c>
       <c r="K35" t="n">
-        <v>383.6591389975515</v>
+        <v>444.9874371847774</v>
       </c>
       <c r="L35" t="n">
-        <v>692.9444060294406</v>
+        <v>754.2727042166666</v>
       </c>
       <c r="M35" t="n">
-        <v>1068.753295937546</v>
+        <v>1130.081594124772</v>
       </c>
       <c r="N35" t="n">
-        <v>1455.256974959294</v>
+        <v>1516.585273146521</v>
       </c>
       <c r="O35" t="n">
-        <v>1806.886177858094</v>
+        <v>2153.366190700428</v>
       </c>
       <c r="P35" t="n">
-        <v>2208.780738533167</v>
+        <v>2418.972579286472</v>
       </c>
       <c r="Q35" t="n">
-        <v>2570.259169068458</v>
+        <v>2570.259169068457</v>
       </c>
       <c r="R35" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S35" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="T35" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.248397210375</v>
+        <v>2188.073497574418</v>
       </c>
       <c r="V35" t="n">
-        <v>1988.185509866804</v>
+        <v>1857.010610230847</v>
       </c>
       <c r="W35" t="n">
-        <v>1988.185509866804</v>
+        <v>1857.010610230847</v>
       </c>
       <c r="X35" t="n">
-        <v>1988.185509866804</v>
+        <v>1857.010610230847</v>
       </c>
       <c r="Y35" t="n">
-        <v>1988.185509866804</v>
+        <v>1857.010610230847</v>
       </c>
     </row>
     <row r="36">
@@ -6998,13 +6998,13 @@
         <v>763.9168804133423</v>
       </c>
       <c r="D36" t="n">
-        <v>614.9824707520909</v>
+        <v>614.982470752091</v>
       </c>
       <c r="E36" t="n">
-        <v>455.7450157466353</v>
+        <v>455.7450157466355</v>
       </c>
       <c r="F36" t="n">
-        <v>309.2104577735204</v>
+        <v>309.2104577735206</v>
       </c>
       <c r="G36" t="n">
         <v>172.3569989104732</v>
@@ -7013,22 +7013,22 @@
         <v>77.11927188230874</v>
       </c>
       <c r="I36" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J36" t="n">
         <v>224.5582251110245</v>
       </c>
       <c r="K36" t="n">
-        <v>647.0365581638331</v>
+        <v>647.0365581638332</v>
       </c>
       <c r="L36" t="n">
-        <v>909.3832684542963</v>
+        <v>909.3832684542964</v>
       </c>
       <c r="M36" t="n">
-        <v>1234.886373440623</v>
+        <v>1234.886373440624</v>
       </c>
       <c r="N36" t="n">
-        <v>1583.413221966968</v>
+        <v>1583.413221966969</v>
       </c>
       <c r="O36" t="n">
         <v>1880.027402923163</v>
@@ -7037,7 +7037,7 @@
         <v>2253.496779410548</v>
       </c>
       <c r="Q36" t="n">
-        <v>2557.766612314666</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R36" t="n">
         <v>2572.852192137001</v>
@@ -7046,7 +7046,7 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T36" t="n">
-        <v>2239.686617951058</v>
+        <v>2239.686617951057</v>
       </c>
       <c r="U36" t="n">
         <v>2011.586510644968</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>747.3593186017133</v>
+        <v>104.9765746187325</v>
       </c>
       <c r="C37" t="n">
-        <v>578.4231356738064</v>
+        <v>104.9765746187325</v>
       </c>
       <c r="D37" t="n">
-        <v>578.4231356738064</v>
+        <v>104.9765746187325</v>
       </c>
       <c r="E37" t="n">
-        <v>430.5100420914133</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="F37" t="n">
-        <v>329.2595638553958</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="G37" t="n">
-        <v>161.145626971885</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H37" t="n">
-        <v>161.145626971885</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I37" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J37" t="n">
         <v>68.09327731914516</v>
       </c>
       <c r="K37" t="n">
-        <v>225.2685560834543</v>
+        <v>225.2685560834544</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502282</v>
       </c>
       <c r="M37" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336198</v>
       </c>
       <c r="N37" t="n">
         <v>1042.673563376666</v>
       </c>
       <c r="O37" t="n">
-        <v>1285.052341775823</v>
+        <v>1285.052341775824</v>
       </c>
       <c r="P37" t="n">
-        <v>1468.928576695282</v>
+        <v>1468.928576695283</v>
       </c>
       <c r="Q37" t="n">
         <v>1512.799870543881</v>
       </c>
       <c r="R37" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S37" t="n">
-        <v>1404.48485078137</v>
+        <v>1313.949630052286</v>
       </c>
       <c r="T37" t="n">
-        <v>1404.48485078137</v>
+        <v>1313.949630052286</v>
       </c>
       <c r="U37" t="n">
-        <v>1404.48485078137</v>
+        <v>1024.82433952748</v>
       </c>
       <c r="V37" t="n">
-        <v>1149.800362575483</v>
+        <v>1024.82433952748</v>
       </c>
       <c r="W37" t="n">
-        <v>1149.800362575483</v>
+        <v>735.4071694905197</v>
       </c>
       <c r="X37" t="n">
-        <v>1149.800362575483</v>
+        <v>507.4176185925023</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.007783431953</v>
+        <v>286.6250394489722</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1657.791837451201</v>
+        <v>1256.881650357689</v>
       </c>
       <c r="C38" t="n">
-        <v>1288.829320510789</v>
+        <v>887.919133417277</v>
       </c>
       <c r="D38" t="n">
-        <v>930.5636219040387</v>
+        <v>887.919133417277</v>
       </c>
       <c r="E38" t="n">
-        <v>544.7753693057944</v>
+        <v>502.1308808190327</v>
       </c>
       <c r="F38" t="n">
-        <v>544.7753693057944</v>
+        <v>502.1308808190327</v>
       </c>
       <c r="G38" t="n">
-        <v>128.7864416450069</v>
+        <v>86.14195315824526</v>
       </c>
       <c r="H38" t="n">
-        <v>128.7864416450069</v>
+        <v>86.14195315824526</v>
       </c>
       <c r="I38" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J38" t="n">
-        <v>331.5048602814481</v>
+        <v>164.0992112610952</v>
       </c>
       <c r="K38" t="n">
-        <v>551.0647880179044</v>
+        <v>383.6591389975516</v>
       </c>
       <c r="L38" t="n">
-        <v>860.3500550497936</v>
+        <v>1020.440056551459</v>
       </c>
       <c r="M38" t="n">
-        <v>1236.158944957898</v>
+        <v>1396.248946459564</v>
       </c>
       <c r="N38" t="n">
-        <v>1622.662623979647</v>
+        <v>1782.752625481313</v>
       </c>
       <c r="O38" t="n">
-        <v>1974.291826878447</v>
+        <v>2153.366190700428</v>
       </c>
       <c r="P38" t="n">
-        <v>2239.898215464491</v>
+        <v>2418.972579286472</v>
       </c>
       <c r="Q38" t="n">
-        <v>2505.199913394205</v>
+        <v>2570.259169068457</v>
       </c>
       <c r="R38" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S38" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="T38" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U38" t="n">
-        <v>2572.852192137001</v>
+        <v>1978.083869677071</v>
       </c>
       <c r="V38" t="n">
-        <v>2572.852192137001</v>
+        <v>1647.0209823335</v>
       </c>
       <c r="W38" t="n">
-        <v>2421.396927688093</v>
+        <v>1647.0209823335</v>
       </c>
       <c r="X38" t="n">
-        <v>2047.931169427012</v>
+        <v>1647.0209823335</v>
       </c>
       <c r="Y38" t="n">
-        <v>1657.791837451201</v>
+        <v>1256.881650357689</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>938.3699096944692</v>
+        <v>938.3699096944694</v>
       </c>
       <c r="C39" t="n">
-        <v>763.9168804133423</v>
+        <v>763.9168804133424</v>
       </c>
       <c r="D39" t="n">
-        <v>614.982470752091</v>
+        <v>614.9824707520911</v>
       </c>
       <c r="E39" t="n">
         <v>455.7450157466357</v>
@@ -7250,31 +7250,31 @@
         <v>77.11927188230874</v>
       </c>
       <c r="I39" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J39" t="n">
         <v>224.5582251110245</v>
       </c>
       <c r="K39" t="n">
-        <v>647.0365581638331</v>
+        <v>385.2159735213804</v>
       </c>
       <c r="L39" t="n">
-        <v>1064.126680999498</v>
+        <v>647.5626838118435</v>
       </c>
       <c r="M39" t="n">
-        <v>1389.629785985825</v>
+        <v>1074.351645032287</v>
       </c>
       <c r="N39" t="n">
-        <v>1738.15663451217</v>
+        <v>1422.878493558632</v>
       </c>
       <c r="O39" t="n">
-        <v>2034.770815468364</v>
+        <v>1719.492674514826</v>
       </c>
       <c r="P39" t="n">
         <v>2253.496779410548</v>
       </c>
       <c r="Q39" t="n">
-        <v>2557.766612314666</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R39" t="n">
         <v>2572.852192137001</v>
@@ -7283,7 +7283,7 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T39" t="n">
-        <v>2239.686617951058</v>
+        <v>2239.686617951057</v>
       </c>
       <c r="U39" t="n">
         <v>2011.586510644968</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>477.1726574377889</v>
+        <v>983.2990859521088</v>
       </c>
       <c r="C40" t="n">
-        <v>477.1726574377889</v>
+        <v>814.362903024202</v>
       </c>
       <c r="D40" t="n">
-        <v>477.1726574377889</v>
+        <v>664.2462636118662</v>
       </c>
       <c r="E40" t="n">
-        <v>329.2595638553958</v>
+        <v>516.3331700294731</v>
       </c>
       <c r="F40" t="n">
-        <v>329.2595638553958</v>
+        <v>369.4432225315627</v>
       </c>
       <c r="G40" t="n">
-        <v>161.145626971885</v>
+        <v>201.329285648052</v>
       </c>
       <c r="H40" t="n">
-        <v>161.145626971885</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I40" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J40" t="n">
         <v>68.09327731914516</v>
       </c>
       <c r="K40" t="n">
-        <v>225.2685560834543</v>
+        <v>225.2685560834544</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502282</v>
       </c>
       <c r="M40" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336198</v>
       </c>
       <c r="N40" t="n">
         <v>1042.673563376666</v>
       </c>
       <c r="O40" t="n">
-        <v>1285.052341775823</v>
+        <v>1285.052341775824</v>
       </c>
       <c r="P40" t="n">
-        <v>1468.928576695282</v>
+        <v>1468.928576695283</v>
       </c>
       <c r="Q40" t="n">
         <v>1512.799870543881</v>
@@ -7362,22 +7362,22 @@
         <v>1512.799870543881</v>
       </c>
       <c r="T40" t="n">
-        <v>1289.276735828243</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="U40" t="n">
-        <v>1000.151445303438</v>
+        <v>1500.705806887087</v>
       </c>
       <c r="V40" t="n">
-        <v>1000.151445303438</v>
+        <v>1500.705806887087</v>
       </c>
       <c r="W40" t="n">
-        <v>1000.151445303438</v>
+        <v>1211.288636850126</v>
       </c>
       <c r="X40" t="n">
-        <v>772.1618944054206</v>
+        <v>983.2990859521088</v>
       </c>
       <c r="Y40" t="n">
-        <v>551.3693152618905</v>
+        <v>983.2990859521088</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1169.043466909361</v>
+        <v>1631.693266683156</v>
       </c>
       <c r="C41" t="n">
-        <v>800.0809499689497</v>
+        <v>1262.730749742745</v>
       </c>
       <c r="D41" t="n">
-        <v>800.0809499689497</v>
+        <v>1262.730749742745</v>
       </c>
       <c r="E41" t="n">
-        <v>539.7723464346145</v>
+        <v>1262.730749742745</v>
       </c>
       <c r="F41" t="n">
-        <v>128.7864416450069</v>
+        <v>851.744844953137</v>
       </c>
       <c r="G41" t="n">
-        <v>128.7864416450069</v>
+        <v>435.7559172923495</v>
       </c>
       <c r="H41" t="n">
         <v>128.7864416450069</v>
       </c>
       <c r="I41" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J41" t="n">
-        <v>331.5048602814481</v>
+        <v>331.5048602814482</v>
       </c>
       <c r="K41" t="n">
-        <v>551.0647880179044</v>
+        <v>665.0798961656322</v>
       </c>
       <c r="L41" t="n">
-        <v>860.3500550497936</v>
+        <v>974.3651631975215</v>
       </c>
       <c r="M41" t="n">
-        <v>1236.158944957898</v>
+        <v>1350.174053105626</v>
       </c>
       <c r="N41" t="n">
-        <v>1622.662623979647</v>
+        <v>1736.677732127376</v>
       </c>
       <c r="O41" t="n">
-        <v>1974.291826878447</v>
+        <v>2088.306935026175</v>
       </c>
       <c r="P41" t="n">
-        <v>2239.898215464491</v>
+        <v>2353.913323612219</v>
       </c>
       <c r="Q41" t="n">
-        <v>2505.199913394205</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R41" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S41" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="T41" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.248397210375</v>
+        <v>1978.083869677071</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.248397210375</v>
+        <v>1978.083869677071</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.248397210375</v>
+        <v>1978.083869677071</v>
       </c>
       <c r="X41" t="n">
-        <v>1945.782638949295</v>
+        <v>1978.083869677071</v>
       </c>
       <c r="Y41" t="n">
-        <v>1555.643306973483</v>
+        <v>1978.083869677071</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>938.3699096944694</v>
+        <v>938.3699096944692</v>
       </c>
       <c r="C42" t="n">
-        <v>763.9168804133424</v>
+        <v>763.9168804133423</v>
       </c>
       <c r="D42" t="n">
-        <v>614.9824707520911</v>
+        <v>614.982470752091</v>
       </c>
       <c r="E42" t="n">
-        <v>455.7450157466357</v>
+        <v>455.7450157466355</v>
       </c>
       <c r="F42" t="n">
-        <v>309.2104577735206</v>
+        <v>309.2104577735205</v>
       </c>
       <c r="G42" t="n">
         <v>172.3569989104732</v>
       </c>
       <c r="H42" t="n">
-        <v>77.11927188230874</v>
+        <v>77.11927188230867</v>
       </c>
       <c r="I42" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J42" t="n">
         <v>224.5582251110245</v>
       </c>
       <c r="K42" t="n">
-        <v>647.0365581638331</v>
+        <v>647.0365581638332</v>
       </c>
       <c r="L42" t="n">
-        <v>1064.126680999497</v>
+        <v>909.3832684542964</v>
       </c>
       <c r="M42" t="n">
-        <v>1389.629785985825</v>
+        <v>1234.886373440624</v>
       </c>
       <c r="N42" t="n">
-        <v>1738.156634512169</v>
+        <v>1583.413221966969</v>
       </c>
       <c r="O42" t="n">
-        <v>2034.770815468364</v>
+        <v>2034.770815468363</v>
       </c>
       <c r="P42" t="n">
         <v>2253.496779410548</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.5736832550758</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="C43" t="n">
-        <v>201.5736832550758</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="D43" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="E43" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="F43" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="G43" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H43" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I43" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J43" t="n">
         <v>68.09327731914516</v>
       </c>
       <c r="K43" t="n">
-        <v>225.2685560834543</v>
+        <v>225.2685560834544</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502282</v>
       </c>
       <c r="M43" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336198</v>
       </c>
       <c r="N43" t="n">
         <v>1042.673563376666</v>
       </c>
       <c r="O43" t="n">
-        <v>1285.052341775823</v>
+        <v>1285.052341775824</v>
       </c>
       <c r="P43" t="n">
-        <v>1468.928576695282</v>
+        <v>1468.928576695283</v>
       </c>
       <c r="Q43" t="n">
         <v>1512.799870543881</v>
       </c>
       <c r="R43" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S43" t="n">
-        <v>1205.634610289775</v>
+        <v>1313.949630052286</v>
       </c>
       <c r="T43" t="n">
-        <v>982.1114755741376</v>
+        <v>1090.426495336648</v>
       </c>
       <c r="U43" t="n">
-        <v>692.9861850493322</v>
+        <v>801.3012048118431</v>
       </c>
       <c r="V43" t="n">
-        <v>438.3016968434454</v>
+        <v>789.6563439212481</v>
       </c>
       <c r="W43" t="n">
-        <v>438.3016968434454</v>
+        <v>500.2391738842875</v>
       </c>
       <c r="X43" t="n">
-        <v>383.2221480853154</v>
+        <v>272.2496229862701</v>
       </c>
       <c r="Y43" t="n">
-        <v>383.2221480853154</v>
+        <v>51.45704384274001</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1288.829320510789</v>
+        <v>1132.681145757621</v>
       </c>
       <c r="C44" t="n">
-        <v>1288.829320510789</v>
+        <v>1132.681145757621</v>
       </c>
       <c r="D44" t="n">
-        <v>930.5636219040387</v>
+        <v>774.4154471508701</v>
       </c>
       <c r="E44" t="n">
-        <v>544.7753693057944</v>
+        <v>774.4154471508701</v>
       </c>
       <c r="F44" t="n">
-        <v>544.7753693057944</v>
+        <v>774.4154471508701</v>
       </c>
       <c r="G44" t="n">
-        <v>128.7864416450069</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="H44" t="n">
-        <v>128.7864416450069</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I44" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J44" t="n">
-        <v>331.5048602814481</v>
+        <v>331.5048602814482</v>
       </c>
       <c r="K44" t="n">
-        <v>665.0798961656335</v>
+        <v>551.0647880179046</v>
       </c>
       <c r="L44" t="n">
-        <v>974.3651631975226</v>
+        <v>974.3651631975215</v>
       </c>
       <c r="M44" t="n">
-        <v>1350.174053105628</v>
+        <v>1350.174053105626</v>
       </c>
       <c r="N44" t="n">
         <v>1736.677732127376</v>
       </c>
       <c r="O44" t="n">
-        <v>2088.306935026176</v>
+        <v>2088.306935026175</v>
       </c>
       <c r="P44" t="n">
-        <v>2353.91332361222</v>
+        <v>2353.913323612219</v>
       </c>
       <c r="Q44" t="n">
-        <v>2505.199913394205</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R44" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S44" t="n">
-        <v>2529.161915374696</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.172287477349</v>
+        <v>2362.862564239654</v>
       </c>
       <c r="U44" t="n">
-        <v>2065.568492550723</v>
+        <v>2109.258769313027</v>
       </c>
       <c r="V44" t="n">
-        <v>2065.568492550723</v>
+        <v>1778.195881969456</v>
       </c>
       <c r="W44" t="n">
-        <v>2065.568492550723</v>
+        <v>1522.820477733432</v>
       </c>
       <c r="X44" t="n">
-        <v>2065.568492550723</v>
+        <v>1522.820477733432</v>
       </c>
       <c r="Y44" t="n">
-        <v>1675.429160574911</v>
+        <v>1132.681145757621</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>938.3699096944697</v>
+        <v>938.3699096944692</v>
       </c>
       <c r="C45" t="n">
-        <v>763.9168804133427</v>
+        <v>763.9168804133423</v>
       </c>
       <c r="D45" t="n">
         <v>614.9824707520911</v>
       </c>
       <c r="E45" t="n">
-        <v>455.7450157466357</v>
+        <v>455.7450157466355</v>
       </c>
       <c r="F45" t="n">
         <v>309.2104577735206</v>
       </c>
       <c r="G45" t="n">
-        <v>172.3569989104732</v>
+        <v>172.3569989104735</v>
       </c>
       <c r="H45" t="n">
         <v>77.11927188230874</v>
       </c>
       <c r="I45" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J45" t="n">
         <v>224.5582251110245</v>
       </c>
       <c r="K45" t="n">
-        <v>647.0365581638331</v>
+        <v>647.0365581638332</v>
       </c>
       <c r="L45" t="n">
-        <v>909.3832684542963</v>
+        <v>909.3832684542964</v>
       </c>
       <c r="M45" t="n">
-        <v>1234.886373440623</v>
+        <v>1234.886373440624</v>
       </c>
       <c r="N45" t="n">
-        <v>1583.413221966968</v>
+        <v>1583.413221966969</v>
       </c>
       <c r="O45" t="n">
         <v>1880.027402923163</v>
       </c>
       <c r="P45" t="n">
-        <v>2253.496779410548</v>
+        <v>2268.582359232883</v>
       </c>
       <c r="Q45" t="n">
-        <v>2557.766612314666</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="R45" t="n">
         <v>2572.852192137001</v>
@@ -7757,10 +7757,10 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T45" t="n">
-        <v>2239.686617951058</v>
+        <v>2239.686617951057</v>
       </c>
       <c r="U45" t="n">
-        <v>2011.586510644969</v>
+        <v>2011.586510644968</v>
       </c>
       <c r="V45" t="n">
         <v>1776.434402413226</v>
@@ -7769,10 +7769,10 @@
         <v>1522.197045685024</v>
       </c>
       <c r="X45" t="n">
-        <v>1314.345545479492</v>
+        <v>1314.345545479491</v>
       </c>
       <c r="Y45" t="n">
-        <v>1106.585246714538</v>
+        <v>1106.585246714537</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.45704384274002</v>
+        <v>329.2595638553958</v>
       </c>
       <c r="C46" t="n">
-        <v>51.45704384274002</v>
+        <v>329.2595638553958</v>
       </c>
       <c r="D46" t="n">
-        <v>51.45704384274002</v>
+        <v>329.2595638553958</v>
       </c>
       <c r="E46" t="n">
-        <v>51.45704384274002</v>
+        <v>329.2595638553958</v>
       </c>
       <c r="F46" t="n">
-        <v>51.45704384274002</v>
+        <v>329.2595638553958</v>
       </c>
       <c r="G46" t="n">
-        <v>51.45704384274002</v>
+        <v>161.145626971885</v>
       </c>
       <c r="H46" t="n">
-        <v>51.45704384274002</v>
+        <v>161.145626971885</v>
       </c>
       <c r="I46" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J46" t="n">
         <v>68.09327731914516</v>
       </c>
       <c r="K46" t="n">
-        <v>225.2685560834543</v>
+        <v>225.2685560834544</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502282</v>
       </c>
       <c r="M46" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336198</v>
       </c>
       <c r="N46" t="n">
         <v>1042.673563376666</v>
       </c>
       <c r="O46" t="n">
-        <v>1285.052341775823</v>
+        <v>1285.052341775824</v>
       </c>
       <c r="P46" t="n">
-        <v>1468.928576695282</v>
+        <v>1468.928576695283</v>
       </c>
       <c r="Q46" t="n">
         <v>1512.799870543881</v>
@@ -7833,25 +7833,25 @@
         <v>1512.799870543881</v>
       </c>
       <c r="S46" t="n">
-        <v>1313.949630052285</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="T46" t="n">
-        <v>1090.426495336648</v>
+        <v>1289.276735828244</v>
       </c>
       <c r="U46" t="n">
-        <v>801.3012048118427</v>
+        <v>1000.151445303438</v>
       </c>
       <c r="V46" t="n">
-        <v>546.6167166059558</v>
+        <v>745.4669570975516</v>
       </c>
       <c r="W46" t="n">
-        <v>272.2496229862701</v>
+        <v>557.2491147534131</v>
       </c>
       <c r="X46" t="n">
-        <v>272.2496229862701</v>
+        <v>329.2595638553958</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.45704384274002</v>
+        <v>329.2595638553958</v>
       </c>
     </row>
   </sheetData>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>71.948400418966</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>115.1667759067961</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>291.1657262904677</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>129.6059880404963</v>
+        <v>156.3064773183849</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>115.1667759067969</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>115.1667759067961</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>156.3064773183856</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>171.5444367348855</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>30.28371039482018</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.8831957797791</v>
+        <v>115.1667759067961</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>156.3064773183856</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>156.3064773183844</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.1667759067966</v>
+        <v>115.1667759067957</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>156.3064773183856</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>156.3064773183844</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>206.62823561037</v>
+        <v>206.6282356103699</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>156.3064773183852</v>
+        <v>156.3064773183851</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>319.0700820908617</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>206.6282356103718</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>156.3064773183852</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>156.3064773183849</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>60.64108939268181</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>149.9734669187889</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>156.3064773183852</v>
+        <v>156.3064773183849</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>275.3415878404585</v>
+        <v>275.3415878404568</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>156.3064773183852</v>
+        <v>156.3064773183849</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>61.94777594669273</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>288.0320350051594</v>
       </c>
       <c r="P35" t="n">
-        <v>137.6648202919482</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>156.3064773183854</v>
+        <v>156.3064773183844</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>330.8036873959782</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>19.17612355587403</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>115.1667759067966</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>156.3064773183856</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>102.3089456910264</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>115.1667759067956</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>115.1667759067966</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>156.3064773183851</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>156.3064773183843</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>115.166775906797</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>115.1667759067957</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>156.3064773183854</v>
+        <v>171.544436734885</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>30.28371039482018</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>108.1909342478999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>162.109450080881</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>166.4327975146757</v>
       </c>
       <c r="H13" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>76.34226628124719</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>65.504374428262</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424419</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T14" t="n">
         <v>207.8897316183737</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>60.52043904699065</v>
       </c>
       <c r="W14" t="n">
-        <v>28.48780396029014</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07259487485734</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.2879033684809</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2340376195573</v>
+        <v>80.8808789254972</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>252.7783293818445</v>
+        <v>52.88507294634428</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>76.55610382424419</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>22.23307453188302</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>166.4327975146757</v>
       </c>
       <c r="H19" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>108.5916972978535</v>
@@ -23940,10 +23940,10 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T19" t="n">
-        <v>22.02457769004451</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I20" t="n">
-        <v>76.55610382424422</v>
+        <v>18.02149581330848</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>207.8897316183737</v>
       </c>
       <c r="U20" t="n">
-        <v>94.22489536219788</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4327975146757</v>
       </c>
       <c r="H22" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>108.5916972978535</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>256.495787544342</v>
       </c>
       <c r="X22" t="n">
-        <v>22.02457769004448</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5190302202239</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.3735193872588</v>
       </c>
       <c r="I25" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.3996882351107</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>68.87863206106597</v>
       </c>
       <c r="G28" t="n">
         <v>166.4327975146757</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>41.13793443358219</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I31" t="n">
         <v>108.5916972978535</v>
@@ -24888,16 +24888,16 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S31" t="n">
-        <v>47.14312234955588</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>174.8367188114259</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S34" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>22.024577690044</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.03442365091695</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>97.2472599427374</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>303.8997808908692</v>
+        <v>30.11709201477538</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.55610382424419</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>207.8897316183737</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>93.44962717833663</v>
       </c>
       <c r="F37" t="n">
-        <v>45.18307456927387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H37" t="n">
         <v>148.3735193872588</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S37" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.2879033684809</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>42.218043601894</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>199.3002569129935</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.3772889360767</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>196.8617380866793</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>274.2609145993311</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>39.8071446995051</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>124.22485257327</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>240.6092310421389</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>171.1809021184885</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>76.55610382424419</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>86.60977664491497</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>96.41931852374927</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.3735193872588</v>
       </c>
       <c r="I46" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>14.89957565310215</v>
+        <v>100.1873344158939</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>605556.4811630646</v>
+        <v>605556.4811630648</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605556.4811630647</v>
+        <v>605556.4811630646</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830947.2570727943</v>
+        <v>830947.2570727941</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>830947.2570727943</v>
+        <v>830947.2570727941</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>830947.2570727943</v>
+        <v>830947.2570727941</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>605556.4811630646</v>
+        <v>605556.4811630647</v>
       </c>
     </row>
     <row r="14">
@@ -26322,40 +26322,40 @@
         <v>655421.0709736305</v>
       </c>
       <c r="E2" t="n">
-        <v>486211.1804525484</v>
+        <v>486211.1804525482</v>
       </c>
       <c r="F2" t="n">
-        <v>486211.1804525485</v>
+        <v>486211.1804525482</v>
       </c>
       <c r="G2" t="n">
-        <v>486211.1804525485</v>
+        <v>486211.1804525483</v>
       </c>
       <c r="H2" t="n">
-        <v>486211.1804525485</v>
+        <v>486211.1804525483</v>
       </c>
       <c r="I2" t="n">
-        <v>626904.6786157452</v>
+        <v>626904.678615745</v>
       </c>
       <c r="J2" t="n">
         <v>626904.6786157452</v>
       </c>
       <c r="K2" t="n">
+        <v>626904.6786157449</v>
+      </c>
+      <c r="L2" t="n">
         <v>626904.6786157448</v>
       </c>
-      <c r="L2" t="n">
-        <v>626904.678615745</v>
-      </c>
       <c r="M2" t="n">
-        <v>486211.1804525484</v>
+        <v>486211.1804525483</v>
       </c>
       <c r="N2" t="n">
-        <v>486211.1804525484</v>
+        <v>486211.1804525482</v>
       </c>
       <c r="O2" t="n">
-        <v>486211.1804525484</v>
+        <v>486211.1804525481</v>
       </c>
       <c r="P2" t="n">
-        <v>486211.1804525481</v>
+        <v>486211.1804525483</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>886255.8658040958</v>
+        <v>886255.8658040959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151391.7979932622</v>
+        <v>151391.7979932623</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18416.64140604451</v>
+        <v>18416.64140604444</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768272</v>
       </c>
       <c r="F4" t="n">
-        <v>28699.92018768275</v>
+        <v>28699.92018768272</v>
       </c>
       <c r="G4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768271</v>
       </c>
       <c r="H4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.9201876827</v>
       </c>
       <c r="I4" t="n">
-        <v>87286.3235524972</v>
+        <v>87286.32355249718</v>
       </c>
       <c r="J4" t="n">
-        <v>87286.32355249723</v>
+        <v>87286.32355249714</v>
       </c>
       <c r="K4" t="n">
-        <v>87286.32355249721</v>
+        <v>87286.32355249717</v>
       </c>
       <c r="L4" t="n">
-        <v>87286.32355249723</v>
+        <v>87286.32355249718</v>
       </c>
       <c r="M4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768271</v>
       </c>
       <c r="N4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768272</v>
       </c>
       <c r="O4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.9201876827</v>
       </c>
       <c r="P4" t="n">
-        <v>28699.92018768275</v>
+        <v>28699.9201876827</v>
       </c>
     </row>
     <row r="5">
@@ -26490,10 +26490,10 @@
         <v>57944.35528287131</v>
       </c>
       <c r="I5" t="n">
-        <v>92558.47495747521</v>
+        <v>92558.47495747523</v>
       </c>
       <c r="J5" t="n">
-        <v>92558.47495747523</v>
+        <v>92558.47495747522</v>
       </c>
       <c r="K5" t="n">
         <v>92558.47495747523</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206976.9365819906</v>
+        <v>207016.6587828036</v>
       </c>
       <c r="C6" t="n">
-        <v>206976.9365819904</v>
+        <v>207016.6587828035</v>
       </c>
       <c r="D6" t="n">
-        <v>206976.9365819905</v>
+        <v>207016.6587828035</v>
       </c>
       <c r="E6" t="n">
-        <v>-492020.9056795664</v>
+        <v>-487222.1553078482</v>
       </c>
       <c r="F6" t="n">
-        <v>394234.9601245295</v>
+        <v>399033.7104962477</v>
       </c>
       <c r="G6" t="n">
-        <v>394234.9601245296</v>
+        <v>399033.7104962478</v>
       </c>
       <c r="H6" t="n">
-        <v>394234.9601245295</v>
+        <v>399033.7104962478</v>
       </c>
       <c r="I6" t="n">
-        <v>294732.8090726454</v>
+        <v>295574.5548085239</v>
       </c>
       <c r="J6" t="n">
-        <v>446124.6070659077</v>
+        <v>446966.3528017863</v>
       </c>
       <c r="K6" t="n">
-        <v>446124.6070659073</v>
+        <v>446966.352801786</v>
       </c>
       <c r="L6" t="n">
-        <v>446124.6070659076</v>
+        <v>446966.3528017859</v>
       </c>
       <c r="M6" t="n">
-        <v>375818.3187184849</v>
+        <v>380617.0690902033</v>
       </c>
       <c r="N6" t="n">
-        <v>394234.9601245294</v>
+        <v>399033.7104962477</v>
       </c>
       <c r="O6" t="n">
-        <v>394234.9601245294</v>
+        <v>399033.7104962477</v>
       </c>
       <c r="P6" t="n">
-        <v>394234.9601245291</v>
+        <v>399033.7104962478</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="F3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="G3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="H3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="I3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="J3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="K3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="L3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="M3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="N3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="O3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="P3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
     </row>
     <row r="4">
@@ -26807,7 +26807,7 @@
         <v>643.2130480342503</v>
       </c>
       <c r="H4" t="n">
-        <v>643.2130480342503</v>
+        <v>643.2130480342502</v>
       </c>
       <c r="I4" t="n">
         <v>1212.524226892867</v>
@@ -26822,16 +26822,16 @@
         <v>1212.524226892867</v>
       </c>
       <c r="M4" t="n">
-        <v>643.2130480342503</v>
+        <v>643.2130480342502</v>
       </c>
       <c r="N4" t="n">
-        <v>643.2130480342503</v>
+        <v>643.2130480342502</v>
       </c>
       <c r="O4" t="n">
-        <v>643.2130480342503</v>
+        <v>643.2130480342502</v>
       </c>
       <c r="P4" t="n">
-        <v>643.2130480342503</v>
+        <v>643.2130480342502</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251791</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>569.3111788586168</v>
+        <v>569.3111788586172</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>73.90186917563324</v>
+        <v>73.90186917563295</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H11" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I11" t="n">
         <v>133.9197857461617</v>
@@ -31767,22 +31767,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L11" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M11" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N11" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O11" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P11" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q11" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R11" t="n">
         <v>218.2047530348831</v>
@@ -31837,16 +31837,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I12" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J12" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K12" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L12" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M12" t="n">
         <v>470.9250490597225</v>
@@ -31858,7 +31858,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q12" t="n">
         <v>237.2477519098869</v>
@@ -31870,7 +31870,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T12" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U12" t="n">
         <v>0.1222758479469594</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H13" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I13" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J13" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K13" t="n">
         <v>181.0323996686194</v>
@@ -31928,28 +31928,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M13" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N13" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O13" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P13" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R13" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S13" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T13" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U13" t="n">
         <v>0.08499173693362426</v>
@@ -31992,7 +31992,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H14" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I14" t="n">
         <v>133.9197857461617</v>
@@ -32004,22 +32004,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L14" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M14" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N14" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O14" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P14" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q14" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R14" t="n">
         <v>218.2047530348831</v>
@@ -32074,16 +32074,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I15" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J15" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K15" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L15" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M15" t="n">
         <v>470.9250490597225</v>
@@ -32095,7 +32095,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q15" t="n">
         <v>237.2477519098869</v>
@@ -32107,7 +32107,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T15" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U15" t="n">
         <v>0.1222758479469594</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H16" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I16" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J16" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K16" t="n">
         <v>181.0323996686194</v>
@@ -32165,28 +32165,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M16" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N16" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O16" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P16" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R16" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S16" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T16" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U16" t="n">
         <v>0.08499173693362426</v>
@@ -32229,7 +32229,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H17" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I17" t="n">
         <v>133.9197857461617</v>
@@ -32241,22 +32241,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L17" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M17" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N17" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O17" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P17" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q17" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R17" t="n">
         <v>218.2047530348831</v>
@@ -32311,16 +32311,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I18" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J18" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K18" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L18" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M18" t="n">
         <v>470.9250490597225</v>
@@ -32332,7 +32332,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q18" t="n">
         <v>237.2477519098869</v>
@@ -32344,7 +32344,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T18" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U18" t="n">
         <v>0.1222758479469594</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H19" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I19" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J19" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K19" t="n">
         <v>181.0323996686194</v>
@@ -32402,28 +32402,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M19" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N19" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O19" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P19" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R19" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S19" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T19" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U19" t="n">
         <v>0.08499173693362426</v>
@@ -32466,7 +32466,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H20" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I20" t="n">
         <v>133.9197857461617</v>
@@ -32478,22 +32478,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L20" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M20" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N20" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O20" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P20" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q20" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R20" t="n">
         <v>218.2047530348831</v>
@@ -32548,16 +32548,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I21" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J21" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K21" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L21" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M21" t="n">
         <v>470.9250490597225</v>
@@ -32569,7 +32569,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P21" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q21" t="n">
         <v>237.2477519098869</v>
@@ -32581,7 +32581,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T21" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U21" t="n">
         <v>0.1222758479469594</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H22" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I22" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J22" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K22" t="n">
         <v>181.0323996686194</v>
@@ -32639,28 +32639,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M22" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N22" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O22" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P22" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R22" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S22" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T22" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U22" t="n">
         <v>0.08499173693362426</v>
@@ -32703,7 +32703,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H23" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I23" t="n">
         <v>133.9197857461617</v>
@@ -32715,22 +32715,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M23" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N23" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O23" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P23" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q23" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R23" t="n">
         <v>218.2047530348831</v>
@@ -32785,16 +32785,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I24" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J24" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K24" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L24" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M24" t="n">
         <v>470.9250490597225</v>
@@ -32806,7 +32806,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P24" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q24" t="n">
         <v>237.2477519098869</v>
@@ -32818,7 +32818,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T24" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U24" t="n">
         <v>0.1222758479469594</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H25" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I25" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J25" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K25" t="n">
         <v>181.0323996686194</v>
@@ -32876,28 +32876,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M25" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N25" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O25" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P25" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R25" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S25" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T25" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U25" t="n">
         <v>0.08499173693362426</v>
@@ -32940,7 +32940,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H26" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I26" t="n">
         <v>133.9197857461617</v>
@@ -32952,22 +32952,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L26" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M26" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N26" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O26" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P26" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q26" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R26" t="n">
         <v>218.2047530348831</v>
@@ -33022,16 +33022,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I27" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J27" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K27" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L27" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M27" t="n">
         <v>470.9250490597225</v>
@@ -33043,7 +33043,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P27" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q27" t="n">
         <v>237.2477519098869</v>
@@ -33055,7 +33055,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T27" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U27" t="n">
         <v>0.1222758479469594</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H28" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I28" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J28" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K28" t="n">
         <v>181.0323996686194</v>
@@ -33113,28 +33113,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M28" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N28" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O28" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P28" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q28" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R28" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S28" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T28" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U28" t="n">
         <v>0.08499173693362426</v>
@@ -33177,7 +33177,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H29" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I29" t="n">
         <v>133.9197857461617</v>
@@ -33189,22 +33189,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L29" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M29" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N29" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O29" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P29" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q29" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R29" t="n">
         <v>218.2047530348831</v>
@@ -33259,16 +33259,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I30" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J30" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K30" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L30" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M30" t="n">
         <v>470.9250490597225</v>
@@ -33280,7 +33280,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P30" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q30" t="n">
         <v>237.2477519098869</v>
@@ -33292,7 +33292,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T30" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U30" t="n">
         <v>0.1222758479469594</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H31" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I31" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J31" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K31" t="n">
         <v>181.0323996686194</v>
@@ -33350,28 +33350,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M31" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N31" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O31" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P31" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R31" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S31" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T31" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U31" t="n">
         <v>0.08499173693362426</v>
@@ -33414,7 +33414,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H32" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I32" t="n">
         <v>133.9197857461617</v>
@@ -33426,22 +33426,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L32" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M32" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N32" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O32" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P32" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q32" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R32" t="n">
         <v>218.2047530348831</v>
@@ -33496,16 +33496,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I33" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J33" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K33" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L33" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M33" t="n">
         <v>470.9250490597225</v>
@@ -33517,7 +33517,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P33" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q33" t="n">
         <v>237.2477519098869</v>
@@ -33529,7 +33529,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T33" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U33" t="n">
         <v>0.1222758479469594</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H34" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I34" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J34" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K34" t="n">
         <v>181.0323996686194</v>
@@ -33587,28 +33587,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M34" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N34" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O34" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P34" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R34" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S34" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T34" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U34" t="n">
         <v>0.08499173693362426</v>
@@ -33651,7 +33651,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H35" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I35" t="n">
         <v>133.9197857461617</v>
@@ -33663,22 +33663,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L35" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M35" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N35" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O35" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P35" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q35" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R35" t="n">
         <v>218.2047530348831</v>
@@ -33733,16 +33733,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I36" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J36" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K36" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L36" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M36" t="n">
         <v>470.9250490597225</v>
@@ -33754,7 +33754,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q36" t="n">
         <v>237.2477519098869</v>
@@ -33766,7 +33766,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T36" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U36" t="n">
         <v>0.1222758479469594</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H37" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I37" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J37" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K37" t="n">
         <v>181.0323996686194</v>
@@ -33824,28 +33824,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M37" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N37" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O37" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P37" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R37" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S37" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T37" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U37" t="n">
         <v>0.08499173693362426</v>
@@ -33888,7 +33888,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H38" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I38" t="n">
         <v>133.9197857461617</v>
@@ -33900,22 +33900,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M38" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N38" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O38" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P38" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q38" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R38" t="n">
         <v>218.2047530348831</v>
@@ -33970,16 +33970,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I39" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J39" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K39" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L39" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M39" t="n">
         <v>470.9250490597225</v>
@@ -33991,7 +33991,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P39" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q39" t="n">
         <v>237.2477519098869</v>
@@ -34003,7 +34003,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T39" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U39" t="n">
         <v>0.1222758479469594</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H40" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I40" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J40" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K40" t="n">
         <v>181.0323996686194</v>
@@ -34061,28 +34061,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M40" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N40" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O40" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P40" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R40" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S40" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T40" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U40" t="n">
         <v>0.08499173693362426</v>
@@ -34125,7 +34125,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H41" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I41" t="n">
         <v>133.9197857461617</v>
@@ -34137,22 +34137,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L41" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M41" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N41" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O41" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P41" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q41" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R41" t="n">
         <v>218.2047530348831</v>
@@ -34207,16 +34207,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I42" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J42" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K42" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L42" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M42" t="n">
         <v>470.9250490597225</v>
@@ -34228,7 +34228,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P42" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q42" t="n">
         <v>237.2477519098869</v>
@@ -34240,7 +34240,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T42" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U42" t="n">
         <v>0.1222758479469594</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H43" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I43" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J43" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K43" t="n">
         <v>181.0323996686194</v>
@@ -34298,28 +34298,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M43" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N43" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O43" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P43" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R43" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S43" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T43" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U43" t="n">
         <v>0.08499173693362426</v>
@@ -34362,7 +34362,7 @@
         <v>3.473699130955491</v>
       </c>
       <c r="H44" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489794</v>
       </c>
       <c r="I44" t="n">
         <v>133.9197857461617</v>
@@ -34374,22 +34374,22 @@
         <v>441.8675558292799</v>
       </c>
       <c r="L44" t="n">
-        <v>548.1757756082591</v>
+        <v>548.1757756082592</v>
       </c>
       <c r="M44" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283888</v>
       </c>
       <c r="N44" t="n">
-        <v>619.8208201842161</v>
+        <v>619.8208201842162</v>
       </c>
       <c r="O44" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507775</v>
       </c>
       <c r="P44" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553137</v>
       </c>
       <c r="Q44" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279701</v>
       </c>
       <c r="R44" t="n">
         <v>218.2047530348831</v>
@@ -34444,16 +34444,16 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I45" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224205</v>
       </c>
       <c r="J45" t="n">
-        <v>175.59626937503</v>
+        <v>175.5962693750301</v>
       </c>
       <c r="K45" t="n">
         <v>300.1219929242134</v>
       </c>
       <c r="L45" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409481</v>
       </c>
       <c r="M45" t="n">
         <v>470.9250490597225</v>
@@ -34465,7 +34465,7 @@
         <v>442.2065282385801</v>
       </c>
       <c r="P45" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276477</v>
       </c>
       <c r="Q45" t="n">
         <v>237.2477519098869</v>
@@ -34477,7 +34477,7 @@
         <v>34.52254773702482</v>
       </c>
       <c r="T45" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550372</v>
       </c>
       <c r="U45" t="n">
         <v>0.1222758479469594</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.558181843783109</v>
+        <v>1.55818184378311</v>
       </c>
       <c r="H46" t="n">
         <v>13.85365312018075</v>
       </c>
       <c r="I46" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940481</v>
       </c>
       <c r="J46" t="n">
-        <v>110.1634563554658</v>
+        <v>110.1634563554659</v>
       </c>
       <c r="K46" t="n">
         <v>181.0323996686194</v>
@@ -34535,28 +34535,28 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M46" t="n">
-        <v>244.2520866577468</v>
+        <v>244.2520866577469</v>
       </c>
       <c r="N46" t="n">
-        <v>238.4443179672827</v>
+        <v>238.4443179672828</v>
       </c>
       <c r="O46" t="n">
-        <v>220.2419209739981</v>
+        <v>220.2419209739982</v>
       </c>
       <c r="P46" t="n">
-        <v>188.4550113608225</v>
+        <v>188.4550113608226</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.476481482602</v>
+        <v>130.4764814826021</v>
       </c>
       <c r="R46" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228417</v>
       </c>
       <c r="S46" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T46" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800558</v>
       </c>
       <c r="U46" t="n">
         <v>0.08499173693362426</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613214</v>
       </c>
       <c r="K11" t="n">
-        <v>293.7261052032653</v>
+        <v>221.7777047842994</v>
       </c>
       <c r="L11" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382719</v>
       </c>
       <c r="M11" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011161</v>
       </c>
       <c r="N11" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876253</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1810130290906</v>
+        <v>355.1810130290908</v>
       </c>
       <c r="P11" t="n">
-        <v>268.2892814000441</v>
+        <v>268.2892814000442</v>
       </c>
       <c r="Q11" t="n">
-        <v>365.1297278134252</v>
+        <v>267.9815130603167</v>
       </c>
       <c r="R11" t="n">
-        <v>68.33563509373337</v>
+        <v>68.3356350937334</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>174.8496780487722</v>
       </c>
       <c r="K12" t="n">
-        <v>162.2805539498544</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L12" t="n">
         <v>264.9966770610739</v>
@@ -35500,19 +35500,19 @@
         <v>328.7910151377042</v>
       </c>
       <c r="N12" t="n">
-        <v>643.2130480342503</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O12" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941357</v>
       </c>
       <c r="P12" t="n">
-        <v>350.5413051538137</v>
+        <v>377.2417944317023</v>
       </c>
       <c r="Q12" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R12" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650064</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K13" t="n">
         <v>158.7629078427366</v>
@@ -35579,16 +35579,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N13" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O13" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P13" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.8765822613213</v>
+        <v>282.8765822613214</v>
       </c>
       <c r="K14" t="n">
-        <v>221.7777047842993</v>
+        <v>221.7777047842994</v>
       </c>
       <c r="L14" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382719</v>
       </c>
       <c r="M14" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011161</v>
       </c>
       <c r="N14" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876253</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1810130290906</v>
+        <v>355.1810130290908</v>
       </c>
       <c r="P14" t="n">
-        <v>383.456057306841</v>
+        <v>268.2892814000442</v>
       </c>
       <c r="Q14" t="n">
-        <v>152.8147371535206</v>
+        <v>267.9815130603167</v>
       </c>
       <c r="R14" t="n">
-        <v>68.33563509373337</v>
+        <v>68.3356350937334</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>426.745790962433</v>
       </c>
       <c r="L15" t="n">
-        <v>421.3031543794594</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M15" t="n">
         <v>328.7910151377042</v>
       </c>
       <c r="N15" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O15" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941357</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9353171133174</v>
+        <v>392.4797538482029</v>
       </c>
       <c r="Q15" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R15" t="n">
-        <v>15.23795941650063</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K16" t="n">
         <v>158.7629078427366</v>
@@ -35816,16 +35816,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N16" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O16" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P16" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.8765822613213</v>
+        <v>282.8765822613214</v>
       </c>
       <c r="K17" t="n">
-        <v>221.7777047842993</v>
+        <v>221.7777047842994</v>
       </c>
       <c r="L17" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382719</v>
       </c>
       <c r="M17" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011161</v>
       </c>
       <c r="N17" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876253</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1810130290906</v>
+        <v>355.1810130290908</v>
       </c>
       <c r="P17" t="n">
-        <v>268.2892814000441</v>
+        <v>268.2892814000442</v>
       </c>
       <c r="Q17" t="n">
-        <v>333.6979329332997</v>
+        <v>267.9815130603167</v>
       </c>
       <c r="R17" t="n">
-        <v>2.619215220750931</v>
+        <v>68.3356350937334</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>426.745790962433</v>
       </c>
       <c r="L18" t="n">
-        <v>421.3031543794594</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M18" t="n">
         <v>328.7910151377042</v>
       </c>
       <c r="N18" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O18" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941357</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9353171133174</v>
+        <v>377.2417944317018</v>
       </c>
       <c r="Q18" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R18" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650064</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K19" t="n">
         <v>158.7629078427366</v>
@@ -36053,16 +36053,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N19" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O19" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P19" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.8765822613213</v>
+        <v>282.8765822613214</v>
       </c>
       <c r="K20" t="n">
-        <v>221.7777047842993</v>
+        <v>221.7777047842994</v>
       </c>
       <c r="L20" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382719</v>
       </c>
       <c r="M20" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011161</v>
       </c>
       <c r="N20" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876253</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1810130290906</v>
+        <v>355.1810130290908</v>
       </c>
       <c r="P20" t="n">
-        <v>268.2892814000441</v>
+        <v>268.2892814000442</v>
       </c>
       <c r="Q20" t="n">
-        <v>267.9815130603172</v>
+        <v>267.9815130603163</v>
       </c>
       <c r="R20" t="n">
-        <v>68.33563509373337</v>
+        <v>68.3356350937334</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>426.745790962433</v>
       </c>
       <c r="L21" t="n">
-        <v>421.3031543794594</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M21" t="n">
         <v>328.7910151377042</v>
       </c>
       <c r="N21" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O21" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941357</v>
       </c>
       <c r="P21" t="n">
-        <v>220.9353171133174</v>
+        <v>377.2417944317018</v>
       </c>
       <c r="Q21" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R21" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650064</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K22" t="n">
         <v>158.7629078427366</v>
@@ -36290,16 +36290,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N22" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O22" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P22" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.8765822613213</v>
+        <v>282.8765822613214</v>
       </c>
       <c r="K23" t="n">
-        <v>545.923117355464</v>
+        <v>545.9231173554641</v>
       </c>
       <c r="L23" t="n">
-        <v>730.0705751887223</v>
+        <v>730.0705751887224</v>
       </c>
       <c r="M23" t="n">
-        <v>829.1184727939485</v>
+        <v>829.1184727939486</v>
       </c>
       <c r="N23" t="n">
-        <v>827.7546809996094</v>
+        <v>827.7546809996095</v>
       </c>
       <c r="O23" t="n">
         <v>561.8092486394606</v>
@@ -36378,10 +36378,10 @@
         <v>590.0879895715268</v>
       </c>
       <c r="Q23" t="n">
-        <v>365.1297278134252</v>
+        <v>365.1297278134253</v>
       </c>
       <c r="R23" t="n">
-        <v>68.33563509373337</v>
+        <v>68.3356350937334</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>426.745790962433</v>
       </c>
       <c r="L24" t="n">
-        <v>421.3031543794591</v>
+        <v>421.303154379459</v>
       </c>
       <c r="M24" t="n">
         <v>328.7910151377042</v>
       </c>
       <c r="N24" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O24" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941357</v>
       </c>
       <c r="P24" t="n">
         <v>220.9353171133174</v>
@@ -36460,7 +36460,7 @@
         <v>307.3432655597145</v>
       </c>
       <c r="R24" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650064</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K25" t="n">
         <v>158.7629078427366</v>
@@ -36527,16 +36527,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N25" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O25" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P25" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.8765822613213</v>
+        <v>113.7799670892476</v>
       </c>
       <c r="K26" t="n">
-        <v>545.923117355464</v>
+        <v>540.8477868751611</v>
       </c>
       <c r="L26" t="n">
-        <v>730.0705751887223</v>
+        <v>730.0705751887224</v>
       </c>
       <c r="M26" t="n">
-        <v>829.1184727939485</v>
+        <v>829.1184727939486</v>
       </c>
       <c r="N26" t="n">
-        <v>827.7546809996094</v>
+        <v>827.7546809996095</v>
       </c>
       <c r="O26" t="n">
-        <v>561.8092486394625</v>
+        <v>735.9811942918361</v>
       </c>
       <c r="P26" t="n">
         <v>590.0879895715268</v>
       </c>
       <c r="Q26" t="n">
-        <v>365.1297278134252</v>
+        <v>365.1297278134253</v>
       </c>
       <c r="R26" t="n">
-        <v>68.33563509373337</v>
+        <v>68.3356350937334</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>426.745790962433</v>
       </c>
       <c r="L27" t="n">
-        <v>421.3031543794591</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M27" t="n">
         <v>328.7910151377042</v>
       </c>
       <c r="N27" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O27" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941357</v>
       </c>
       <c r="P27" t="n">
-        <v>220.9353171133174</v>
+        <v>377.2417944317023</v>
       </c>
       <c r="Q27" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R27" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650064</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K28" t="n">
         <v>158.7629078427366</v>
@@ -36764,16 +36764,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N28" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O28" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P28" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>174.4210564819294</v>
+        <v>282.8765822613214</v>
       </c>
       <c r="K29" t="n">
-        <v>545.923117355464</v>
+        <v>371.7511717030883</v>
       </c>
       <c r="L29" t="n">
-        <v>730.0705751887223</v>
+        <v>730.0705751887224</v>
       </c>
       <c r="M29" t="n">
-        <v>829.1184727939485</v>
+        <v>829.1184727939486</v>
       </c>
       <c r="N29" t="n">
-        <v>827.7546809996094</v>
+        <v>827.7546809996095</v>
       </c>
       <c r="O29" t="n">
-        <v>735.981194291836</v>
+        <v>735.9811942918361</v>
       </c>
       <c r="P29" t="n">
         <v>590.0879895715268</v>
       </c>
       <c r="Q29" t="n">
-        <v>365.1297278134252</v>
+        <v>365.1297278134253</v>
       </c>
       <c r="R29" t="n">
-        <v>2.619215220750931</v>
+        <v>68.3356350937334</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>328.7910151377042</v>
       </c>
       <c r="N30" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O30" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941357</v>
       </c>
       <c r="P30" t="n">
-        <v>377.2417944317025</v>
+        <v>377.2417944317023</v>
       </c>
       <c r="Q30" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R30" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650064</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K31" t="n">
         <v>158.7629078427366</v>
@@ -37001,16 +37001,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N31" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O31" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P31" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.8765822613213</v>
+        <v>282.8765822613214</v>
       </c>
       <c r="K32" t="n">
-        <v>545.923117355464</v>
+        <v>545.9231173554641</v>
       </c>
       <c r="L32" t="n">
-        <v>730.0705751887223</v>
+        <v>730.0705751887224</v>
       </c>
       <c r="M32" t="n">
-        <v>654.9465271415745</v>
+        <v>654.9465271415729</v>
       </c>
       <c r="N32" t="n">
-        <v>827.7546809996094</v>
+        <v>827.7546809996095</v>
       </c>
       <c r="O32" t="n">
-        <v>735.981194291836</v>
+        <v>735.9811942918361</v>
       </c>
       <c r="P32" t="n">
         <v>590.0879895715268</v>
       </c>
       <c r="Q32" t="n">
-        <v>365.1297278134252</v>
+        <v>365.1297278134253</v>
       </c>
       <c r="R32" t="n">
-        <v>68.33563509373337</v>
+        <v>68.3356350937334</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>328.7910151377042</v>
       </c>
       <c r="N33" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O33" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941357</v>
       </c>
       <c r="P33" t="n">
-        <v>377.2417944317025</v>
+        <v>377.2417944317023</v>
       </c>
       <c r="Q33" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R33" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650064</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K34" t="n">
         <v>158.7629078427366</v>
@@ -37238,16 +37238,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N34" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O34" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P34" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>113.7799670892476</v>
       </c>
       <c r="K35" t="n">
-        <v>221.7777047842993</v>
+        <v>283.7254807309921</v>
       </c>
       <c r="L35" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382719</v>
       </c>
       <c r="M35" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011161</v>
       </c>
       <c r="N35" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876253</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1810130290906</v>
+        <v>643.2130480342502</v>
       </c>
       <c r="P35" t="n">
-        <v>405.9541016919923</v>
+        <v>268.2892814000442</v>
       </c>
       <c r="Q35" t="n">
-        <v>365.1297278134252</v>
+        <v>152.8147371535206</v>
       </c>
       <c r="R35" t="n">
-        <v>2.619215220750931</v>
+        <v>2.619215220750959</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>328.7910151377042</v>
       </c>
       <c r="N36" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O36" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941357</v>
       </c>
       <c r="P36" t="n">
-        <v>377.2417944317028</v>
+        <v>377.2417944317018</v>
       </c>
       <c r="Q36" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R36" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650064</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K37" t="n">
         <v>158.7629078427366</v>
@@ -37475,16 +37475,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N37" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O37" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P37" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.8765822613213</v>
+        <v>113.7799670892476</v>
       </c>
       <c r="K38" t="n">
-        <v>221.7777047842993</v>
+        <v>221.7777047842994</v>
       </c>
       <c r="L38" t="n">
-        <v>312.4093606382718</v>
+        <v>643.2130480342502</v>
       </c>
       <c r="M38" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011161</v>
       </c>
       <c r="N38" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876253</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1810130290906</v>
+        <v>374.3571365849648</v>
       </c>
       <c r="P38" t="n">
-        <v>268.2892814000441</v>
+        <v>268.2892814000442</v>
       </c>
       <c r="Q38" t="n">
-        <v>267.9815130603172</v>
+        <v>152.8147371535206</v>
       </c>
       <c r="R38" t="n">
-        <v>68.33563509373337</v>
+        <v>2.619215220750959</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>174.8496780487722</v>
       </c>
       <c r="K39" t="n">
-        <v>426.745790962433</v>
+        <v>162.2805539498544</v>
       </c>
       <c r="L39" t="n">
-        <v>421.3031543794594</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M39" t="n">
-        <v>328.7910151377042</v>
+        <v>431.0999608287306</v>
       </c>
       <c r="N39" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O39" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941357</v>
       </c>
       <c r="P39" t="n">
-        <v>220.9353171133174</v>
+        <v>539.3980857532546</v>
       </c>
       <c r="Q39" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R39" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650064</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K40" t="n">
         <v>158.7629078427366</v>
@@ -37712,16 +37712,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N40" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O40" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P40" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.8765822613213</v>
+        <v>282.8765822613214</v>
       </c>
       <c r="K41" t="n">
-        <v>221.7777047842993</v>
+        <v>336.944480691095</v>
       </c>
       <c r="L41" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382719</v>
       </c>
       <c r="M41" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011161</v>
       </c>
       <c r="N41" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876253</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1810130290906</v>
+        <v>355.1810130290908</v>
       </c>
       <c r="P41" t="n">
-        <v>268.2892814000441</v>
+        <v>268.2892814000442</v>
       </c>
       <c r="Q41" t="n">
-        <v>267.9815130603172</v>
+        <v>152.8147371535206</v>
       </c>
       <c r="R41" t="n">
-        <v>68.33563509373337</v>
+        <v>68.3356350937334</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>426.745790962433</v>
       </c>
       <c r="L42" t="n">
-        <v>421.303154379459</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M42" t="n">
         <v>328.7910151377042</v>
       </c>
       <c r="N42" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O42" t="n">
-        <v>299.6102837941356</v>
+        <v>455.91676111252</v>
       </c>
       <c r="P42" t="n">
         <v>220.9353171133174</v>
@@ -37882,7 +37882,7 @@
         <v>307.3432655597145</v>
       </c>
       <c r="R42" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650064</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K43" t="n">
         <v>158.7629078427366</v>
@@ -37949,16 +37949,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N43" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O43" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P43" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.8765822613213</v>
+        <v>282.8765822613214</v>
       </c>
       <c r="K44" t="n">
-        <v>336.9444806910963</v>
+        <v>221.7777047842994</v>
       </c>
       <c r="L44" t="n">
-        <v>312.4093606382718</v>
+        <v>427.5761365450676</v>
       </c>
       <c r="M44" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011161</v>
       </c>
       <c r="N44" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876253</v>
       </c>
       <c r="O44" t="n">
-        <v>355.1810130290906</v>
+        <v>355.1810130290908</v>
       </c>
       <c r="P44" t="n">
-        <v>268.2892814000441</v>
+        <v>268.2892814000442</v>
       </c>
       <c r="Q44" t="n">
         <v>152.8147371535206</v>
       </c>
       <c r="R44" t="n">
-        <v>68.33563509373337</v>
+        <v>68.3356350937334</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>328.7910151377042</v>
       </c>
       <c r="N45" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437827</v>
       </c>
       <c r="O45" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941357</v>
       </c>
       <c r="P45" t="n">
-        <v>377.2417944317028</v>
+        <v>392.4797538482024</v>
       </c>
       <c r="Q45" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R45" t="n">
-        <v>15.23795941650063</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879308</v>
       </c>
       <c r="K46" t="n">
         <v>158.7629078427366</v>
@@ -38186,16 +38186,16 @@
         <v>283.8359636195875</v>
       </c>
       <c r="N46" t="n">
-        <v>282.5764903465113</v>
+        <v>282.5764903465114</v>
       </c>
       <c r="O46" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P46" t="n">
-        <v>185.733570625716</v>
+        <v>185.7335706257161</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090767</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
